--- a/BackTest/2019-10-25 BackTest DVP.xlsx
+++ b/BackTest/2019-10-25 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4700000000000006</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L12" t="n">
         <v>7.935999999999998</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4800000000000004</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-2.857142857142799</v>
+      </c>
       <c r="L13" t="n">
         <v>7.932999999999998</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.5100000000000007</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-8.108108108108173</v>
+      </c>
       <c r="L14" t="n">
         <v>7.928999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.5100000000000007</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L15" t="n">
         <v>7.925999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.5100000000000007</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L16" t="n">
         <v>7.922</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.6100000000000003</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>7.907999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.6799999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-18.51851851851881</v>
+      </c>
       <c r="L18" t="n">
         <v>7.915000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.7000000000000002</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>7.912000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.71</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-8.333333333333549</v>
+      </c>
       <c r="L20" t="n">
         <v>7.913000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.71</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-8.333333333333549</v>
+      </c>
       <c r="L21" t="n">
         <v>7.911000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.71</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-13.0434782608697</v>
+      </c>
       <c r="L22" t="n">
         <v>7.909000000000002</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.71</v>
       </c>
       <c r="K23" t="n">
-        <v>-10.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>7.906000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>0.8099999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>8.823529411764664</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>7.916000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>0.8299999999999992</v>
       </c>
       <c r="K25" t="n">
-        <v>7.246376811594192</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L25" t="n">
         <v>7.924000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.019999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>26.4367816091954</v>
+        <v>90.24390243902457</v>
       </c>
       <c r="L26" t="n">
         <v>7.951000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.759999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>60.24844720496898</v>
+        <v>96.29629629629636</v>
       </c>
       <c r="L27" t="n">
         <v>8.062000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>30.3030303030303</v>
+        <v>32.48407643312103</v>
       </c>
       <c r="L28" t="n">
         <v>8.115</v>
@@ -1711,7 +1733,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>36.11111111111114</v>
+        <v>43.01075268817209</v>
       </c>
       <c r="L29" t="n">
         <v>8.196000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>2.649999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>33.03167420814483</v>
+        <v>37.11340206185571</v>
       </c>
       <c r="L30" t="n">
         <v>8.268000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>3.04</v>
       </c>
       <c r="K31" t="n">
-        <v>12.06225680933851</v>
+        <v>14.16309012875537</v>
       </c>
       <c r="L31" t="n">
         <v>8.301</v>
@@ -1860,7 +1882,7 @@
         <v>3.04</v>
       </c>
       <c r="K32" t="n">
-        <v>12.06225680933851</v>
+        <v>14.16309012875537</v>
       </c>
       <c r="L32" t="n">
         <v>8.334</v>
@@ -1911,7 +1933,7 @@
         <v>3.29</v>
       </c>
       <c r="K33" t="n">
-        <v>19.5729537366548</v>
+        <v>19.35483870967743</v>
       </c>
       <c r="L33" t="n">
         <v>8.391999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>3.29</v>
       </c>
       <c r="K34" t="n">
-        <v>20.86330935251799</v>
+        <v>20.32520325203252</v>
       </c>
       <c r="L34" t="n">
         <v>8.440000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>3.39</v>
       </c>
       <c r="K35" t="n">
-        <v>16.66666666666669</v>
+        <v>8.860759493670917</v>
       </c>
       <c r="L35" t="n">
         <v>8.48</v>
@@ -2064,7 +2086,7 @@
         <v>3.590000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>9.09090909090907</v>
+        <v>-39.89071038251365</v>
       </c>
       <c r="L36" t="n">
         <v>8.481000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>3.64</v>
       </c>
       <c r="K37" t="n">
-        <v>10.8910891089109</v>
+        <v>-19.70802919708025</v>
       </c>
       <c r="L37" t="n">
         <v>8.403000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>3.759999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>12.33766233766234</v>
+        <v>-37.81512605042028</v>
       </c>
       <c r="L38" t="n">
         <v>8.388000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>3.869999999999998</v>
       </c>
       <c r="K39" t="n">
-        <v>7.886435331230289</v>
+        <v>-39.34426229508204</v>
       </c>
       <c r="L39" t="n">
         <v>8.332000000000003</v>
@@ -2268,7 +2290,7 @@
         <v>3.889999999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>6.918238993710717</v>
+        <v>-12.9411764705882</v>
       </c>
       <c r="L40" t="n">
         <v>8.282000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>3.909999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>7.500000000000012</v>
+        <v>-10.34482758620691</v>
       </c>
       <c r="L41" t="n">
         <v>8.273000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>3.909999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>7.500000000000012</v>
+        <v>-54.83870967741956</v>
       </c>
       <c r="L42" t="n">
         <v>8.264000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>4.049999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>11.37724550898207</v>
+        <v>-26.31578947368419</v>
       </c>
       <c r="L43" t="n">
         <v>8.244000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>4.139999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>11.11111111111115</v>
+        <v>-1.333333333333308</v>
       </c>
       <c r="L44" t="n">
         <v>8.233000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>4.139999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>11.78247734138975</v>
+        <v>34.54545454545496</v>
       </c>
       <c r="L45" t="n">
         <v>8.232000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>4.289999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>1.529051987767606</v>
+        <v>13.84615384615386</v>
       </c>
       <c r="L46" t="n">
         <v>8.236000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>4.639999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.80555555555556</v>
+        <v>36.36363636363644</v>
       </c>
       <c r="L47" t="n">
         <v>8.279999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>4.669999999999997</v>
       </c>
       <c r="K48" t="n">
-        <v>5.833333333333361</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L48" t="n">
         <v>8.309000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>4.689999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>-8.490566037735922</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L49" t="n">
         <v>8.347</v>
@@ -2778,7 +2800,7 @@
         <v>4.939999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.2838427947599</v>
+        <v>12.62135922330086</v>
       </c>
       <c r="L50" t="n">
         <v>8.361999999999998</v>
@@ -2829,7 +2851,7 @@
         <v>4.949999999999998</v>
       </c>
       <c r="K51" t="n">
-        <v>1.570680628272219</v>
+        <v>11.53846153846145</v>
       </c>
       <c r="L51" t="n">
         <v>8.373999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>4.97</v>
       </c>
       <c r="K52" t="n">
-        <v>2.590673575129571</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>8.388</v>
@@ -2931,7 +2953,7 @@
         <v>5.119999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.732240437158512</v>
+        <v>6.122448979591703</v>
       </c>
       <c r="L53" t="n">
         <v>8.403</v>
@@ -2982,7 +3004,7 @@
         <v>5.209999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.291666666666703</v>
+        <v>-2.803738317757115</v>
       </c>
       <c r="L54" t="n">
         <v>8.4</v>
@@ -3033,7 +3055,7 @@
         <v>5.319999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>3.626943005181362</v>
+        <v>22.33009708737866</v>
       </c>
       <c r="L55" t="n">
         <v>8.407999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>5.55</v>
       </c>
       <c r="K56" t="n">
-        <v>2.04081632653066</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L56" t="n">
         <v>8.407999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>5.669999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>10.34482758620685</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L57" t="n">
         <v>8.385</v>
@@ -3186,7 +3208,7 @@
         <v>5.819999999999998</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.912621359223241</v>
+        <v>-29.20353982300872</v>
       </c>
       <c r="L58" t="n">
         <v>8.35</v>
@@ -3237,7 +3259,7 @@
         <v>5.819999999999998</v>
       </c>
       <c r="K59" t="n">
-        <v>2.564102564102602</v>
+        <v>-9.090909090908909</v>
       </c>
       <c r="L59" t="n">
         <v>8.317000000000002</v>
@@ -3288,7 +3310,7 @@
         <v>5.849999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>2.040816326530568</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L60" t="n">
         <v>8.306000000000003</v>
@@ -3339,7 +3361,7 @@
         <v>5.859999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>1.538461538461505</v>
+        <v>-12.3595505617979</v>
       </c>
       <c r="L61" t="n">
         <v>8.297000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>6.13</v>
       </c>
       <c r="K62" t="n">
-        <v>13.51351351351353</v>
+        <v>0.9900990099011433</v>
       </c>
       <c r="L62" t="n">
         <v>8.313000000000004</v>
@@ -3441,7 +3463,7 @@
         <v>6.28</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4484304932735326</v>
+        <v>-4.672897196261574</v>
       </c>
       <c r="L63" t="n">
         <v>8.299000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>6.46</v>
       </c>
       <c r="K64" t="n">
-        <v>4.310344827586188</v>
+        <v>1.754385964912242</v>
       </c>
       <c r="L64" t="n">
         <v>8.312000000000003</v>
@@ -3543,7 +3565,7 @@
         <v>6.46</v>
       </c>
       <c r="K65" t="n">
-        <v>4.310344827586188</v>
+        <v>27.47252747252747</v>
       </c>
       <c r="L65" t="n">
         <v>8.314000000000004</v>
@@ -3594,7 +3616,7 @@
         <v>6.77</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.419354838709695</v>
+        <v>-16.36363636363632</v>
       </c>
       <c r="L66" t="n">
         <v>8.308000000000003</v>
@@ -3645,7 +3667,7 @@
         <v>6.830000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-15.98173515981731</v>
+        <v>2.970297029702897</v>
       </c>
       <c r="L67" t="n">
         <v>8.296000000000003</v>
@@ -3696,7 +3718,7 @@
         <v>6.830000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.8148148148148</v>
+        <v>2.970297029702897</v>
       </c>
       <c r="L68" t="n">
         <v>8.299000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>6.890000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-10.90909090909082</v>
+        <v>11.5384615384616</v>
       </c>
       <c r="L69" t="n">
         <v>8.308000000000002</v>
@@ -3798,7 +3820,7 @@
         <v>6.890000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>0.5128205128205923</v>
+        <v>10.67961165048552</v>
       </c>
       <c r="L70" t="n">
         <v>8.320000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>6.890000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>1.030927835051614</v>
+        <v>-21.05263157894735</v>
       </c>
       <c r="L71" t="n">
         <v>8.331000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>6.890000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>-1.639344262295044</v>
       </c>
       <c r="L72" t="n">
         <v>8.315000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>6.980000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.22580645161283</v>
+        <v>-19.23076923076911</v>
       </c>
       <c r="L73" t="n">
         <v>8.323</v>
@@ -4002,7 +4024,7 @@
         <v>6.990000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>1.123595505618052</v>
+        <v>-20.75471698113192</v>
       </c>
       <c r="L74" t="n">
         <v>8.312000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>6.990000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.389221556886214</v>
+        <v>90.90909090909113</v>
       </c>
       <c r="L75" t="n">
         <v>8.301</v>
@@ -4104,7 +4126,7 @@
         <v>6.990000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>9.722222222222253</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L76" t="n">
         <v>8.321000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>2.255639097744443</v>
+        <v>88.2352941176473</v>
       </c>
       <c r="L77" t="n">
         <v>8.336000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>15.25423728813553</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L78" t="n">
         <v>8.351000000000003</v>
@@ -4257,7 +4279,7 @@
         <v>7.200000000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>-1.449275362318934</v>
+        <v>-35.48387096774227</v>
       </c>
       <c r="L79" t="n">
         <v>8.340000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>7.200000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7407407407407232</v>
+        <v>-35.48387096774227</v>
       </c>
       <c r="L80" t="n">
         <v>8.329000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>7.360000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>10.66666666666665</v>
+        <v>10.63829787234018</v>
       </c>
       <c r="L81" t="n">
         <v>8.334000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>7.530000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>-20.00000000000005</v>
+        <v>-38.18181818181829</v>
       </c>
       <c r="L82" t="n">
         <v>8.322000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>7.690000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>2.127659574468037</v>
+        <v>-5.714285714285838</v>
       </c>
       <c r="L83" t="n">
         <v>8.317000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>7.850000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>-22.30215827338129</v>
+        <v>-23.25581395348846</v>
       </c>
       <c r="L84" t="n">
         <v>8.297000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>8.010000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>-9.677419354838722</v>
+        <v>-3.921568627451069</v>
       </c>
       <c r="L85" t="n">
         <v>8.293000000000003</v>
@@ -4614,7 +4636,7 @@
         <v>8.170000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-17.94871794871801</v>
       </c>
       <c r="L86" t="n">
         <v>8.273000000000005</v>
@@ -4665,7 +4687,7 @@
         <v>8.170000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>-4.477611940298542</v>
+        <v>-17.94871794871801</v>
       </c>
       <c r="L87" t="n">
         <v>8.252000000000006</v>
@@ -4716,7 +4738,7 @@
         <v>8.330000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>6.666666666666639</v>
+        <v>13.27433628318587</v>
       </c>
       <c r="L88" t="n">
         <v>8.247000000000005</v>
@@ -4767,7 +4789,7 @@
         <v>8.330000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>2.777777777777718</v>
+        <v>13.27433628318587</v>
       </c>
       <c r="L89" t="n">
         <v>8.262000000000006</v>
@@ -4818,7 +4840,7 @@
         <v>8.340000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>3.448275862068892</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>8.278000000000006</v>
@@ -4869,7 +4891,7 @@
         <v>8.340000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>3.448275862068892</v>
+        <v>20.98765432098766</v>
       </c>
       <c r="L91" t="n">
         <v>8.278000000000006</v>
@@ -4920,7 +4942,7 @@
         <v>8.350000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>2.739726027397202</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>8.294000000000006</v>
@@ -4971,7 +4993,7 @@
         <v>8.420000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>-8.3333333333334</v>
+        <v>15.78947368421052</v>
       </c>
       <c r="L93" t="n">
         <v>8.287000000000004</v>
@@ -5022,7 +5044,7 @@
         <v>8.430000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-8.3333333333334</v>
+        <v>-19.04761904761907</v>
       </c>
       <c r="L94" t="n">
         <v>8.295000000000005</v>
@@ -5073,7 +5095,7 @@
         <v>8.510000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>-13.15789473684217</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>8.279000000000005</v>
@@ -5124,7 +5146,7 @@
         <v>8.510000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>-13.15789473684217</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>8.279000000000005</v>
@@ -5175,7 +5197,7 @@
         <v>8.510000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>-13.90728476821197</v>
+        <v>-88.88888888888911</v>
       </c>
       <c r="L97" t="n">
         <v>8.279000000000005</v>
@@ -5226,7 +5248,7 @@
         <v>8.670000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>-2.994011976047945</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>8.279000000000005</v>
@@ -5277,7 +5299,7 @@
         <v>8.670000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>10.20408163265309</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L99" t="n">
         <v>8.279000000000005</v>
@@ -5328,7 +5350,7 @@
         <v>8.670000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>10.20408163265309</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L100" t="n">
         <v>8.278000000000006</v>
@@ -5379,7 +5401,7 @@
         <v>8.720000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>2.941176470588303</v>
+        <v>13.51351351351367</v>
       </c>
       <c r="L101" t="n">
         <v>8.282000000000007</v>
@@ -5430,7 +5452,7 @@
         <v>9.120000000000003</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.94968553459116</v>
+        <v>-39.99999999999984</v>
       </c>
       <c r="L102" t="n">
         <v>8.247000000000005</v>
@@ -5481,7 +5503,7 @@
         <v>9.630000000000003</v>
       </c>
       <c r="K103" t="n">
-        <v>8.247422680412377</v>
+        <v>20</v>
       </c>
       <c r="L103" t="n">
         <v>8.270000000000007</v>
@@ -5532,7 +5554,7 @@
         <v>10.25</v>
       </c>
       <c r="K104" t="n">
-        <v>-12.49999999999999</v>
+        <v>-17.2413793103448</v>
       </c>
       <c r="L104" t="n">
         <v>8.232000000000005</v>
@@ -5583,7 +5605,7 @@
         <v>10.37</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.40677966101692</v>
+        <v>-9.67741935483868</v>
       </c>
       <c r="L105" t="n">
         <v>8.214000000000004</v>
@@ -5634,7 +5656,7 @@
         <v>10.37</v>
       </c>
       <c r="K106" t="n">
-        <v>-8.181818181818159</v>
+        <v>-9.67741935483868</v>
       </c>
       <c r="L106" t="n">
         <v>8.196000000000003</v>
@@ -5685,7 +5707,7 @@
         <v>10.41</v>
       </c>
       <c r="K107" t="n">
-        <v>-6.25000000000002</v>
+        <v>-17.24137931034485</v>
       </c>
       <c r="L107" t="n">
         <v>8.182000000000002</v>
@@ -5736,7 +5758,7 @@
         <v>10.43000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-13.33333333333328</v>
+        <v>-15.90909090909084</v>
       </c>
       <c r="L108" t="n">
         <v>8.154000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>10.58000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-19.11111111111107</v>
+        <v>-22.51308900523554</v>
       </c>
       <c r="L109" t="n">
         <v>8.111000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>10.75000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-11.20331950207465</v>
+        <v>-15.27093596059114</v>
       </c>
       <c r="L110" t="n">
         <v>8.085000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>10.91000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-4.280155642023318</v>
+        <v>13.96648044692735</v>
       </c>
       <c r="L111" t="n">
         <v>8.07</v>
@@ -5940,7 +5962,7 @@
         <v>10.97000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-1.526717557251873</v>
+        <v>-14.92537313432827</v>
       </c>
       <c r="L112" t="n">
         <v>8.101000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>10.98000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>0.7812499999999816</v>
+        <v>56.16438356164343</v>
       </c>
       <c r="L113" t="n">
         <v>8.080000000000002</v>
@@ -6042,7 +6064,7 @@
         <v>11.02000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.3861003861003771</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L114" t="n">
         <v>8.117000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>11.02000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>2.78884462151395</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L115" t="n">
         <v>8.142000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>11.02000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>2.78884462151395</v>
+        <v>34.42622950819669</v>
       </c>
       <c r="L116" t="n">
         <v>8.167000000000002</v>
@@ -6195,7 +6217,7 @@
         <v>11.24000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-5.494505494505495</v>
+        <v>-3.703703703703834</v>
       </c>
       <c r="L117" t="n">
         <v>8.166000000000002</v>
@@ -6246,7 +6268,7 @@
         <v>11.45000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-3.597122302158252</v>
+        <v>37.93103448275851</v>
       </c>
       <c r="L118" t="n">
         <v>8.184000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>11.67000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-10.66666666666665</v>
+        <v>-6.521739130434812</v>
       </c>
       <c r="L119" t="n">
         <v>8.195000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>11.84000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>-4.731861198738171</v>
+        <v>-5.376344086021563</v>
       </c>
       <c r="L120" t="n">
         <v>8.206000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>12.02000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-11.51515151515152</v>
+        <v>-27.61904761904764</v>
       </c>
       <c r="L121" t="n">
         <v>8.183000000000003</v>
@@ -6450,7 +6472,7 @@
         <v>12.06000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>2.040816326530625</v>
+        <v>-22.22222222222204</v>
       </c>
       <c r="L122" t="n">
         <v>8.158000000000003</v>
@@ -6501,7 +6523,7 @@
         <v>12.11000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>-16.12903225806449</v>
+        <v>-13.76146788990827</v>
       </c>
       <c r="L123" t="n">
         <v>8.139000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>12.26000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>18.40796019900493</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>8.139000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>12.27000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>12.63157894736841</v>
+        <v>-0.7999999999999818</v>
       </c>
       <c r="L125" t="n">
         <v>8.138000000000002</v>
@@ -6654,7 +6676,7 @@
         <v>12.41000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>4.901960784313697</v>
+        <v>5.982905982905998</v>
       </c>
       <c r="L126" t="n">
         <v>8.123000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>12.41000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>3.000000000000017</v>
+        <v>-14.58333333333338</v>
       </c>
       <c r="L127" t="n">
         <v>8.129999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>12.51000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>6.730769230769161</v>
+        <v>21.4285714285714</v>
       </c>
       <c r="L128" t="n">
         <v>8.126000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>12.51000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>15.02590673575123</v>
+        <v>1.492537313432804</v>
       </c>
       <c r="L129" t="n">
         <v>8.144000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>12.54000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>8.379888268156424</v>
+        <v>42.30769230769232</v>
       </c>
       <c r="L130" t="n">
         <v>8.148000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>12.65000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>5.747126436781577</v>
+        <v>49.15254237288123</v>
       </c>
       <c r="L131" t="n">
         <v>8.181000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>12.65000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>2.380952380952326</v>
+        <v>44.44444444444441</v>
       </c>
       <c r="L132" t="n">
         <v>8.210000000000003</v>
@@ -7011,7 +7033,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>5.813953488372167</v>
+        <v>31.81818181818186</v>
       </c>
       <c r="L133" t="n">
         <v>8.239000000000003</v>
@@ -7062,7 +7084,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>8.333333333333352</v>
+        <v>34.88372093023252</v>
       </c>
       <c r="L134" t="n">
         <v>8.253000000000004</v>
@@ -7113,7 +7135,7 @@
         <v>12.71000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>8.87573964497042</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>8.269000000000004</v>
@@ -7164,7 +7186,7 @@
         <v>12.84000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>15.38461538461533</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>8.312000000000005</v>
@@ -7215,7 +7237,7 @@
         <v>12.87000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>28.83435582822089</v>
+        <v>83.33333333333366</v>
       </c>
       <c r="L137" t="n">
         <v>8.352000000000006</v>
@@ -7266,7 +7288,7 @@
         <v>13.05000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>27.49999999999998</v>
+        <v>88.88888888888911</v>
       </c>
       <c r="L138" t="n">
         <v>8.400000000000004</v>
@@ -7317,7 +7339,7 @@
         <v>13.05000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>47.82608695652178</v>
+        <v>88.23529411764727</v>
       </c>
       <c r="L139" t="n">
         <v>8.448000000000004</v>
@@ -7368,7 +7390,7 @@
         <v>13.08000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>37.09677419354851</v>
+        <v>72.09302325581442</v>
       </c>
       <c r="L140" t="n">
         <v>8.490000000000004</v>
@@ -7419,7 +7441,7 @@
         <v>13.09000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>58.87850467289735</v>
+        <v>68.1818181818187</v>
       </c>
       <c r="L141" t="n">
         <v>8.520000000000003</v>
@@ -7470,7 +7492,7 @@
         <v>13.09000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>57.28155339805837</v>
+        <v>64.1025641025646</v>
       </c>
       <c r="L142" t="n">
         <v>8.550000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>13.25000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>61.40350877192999</v>
+        <v>74.54545454545496</v>
       </c>
       <c r="L143" t="n">
         <v>8.591000000000003</v>
@@ -7572,7 +7594,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>48.07692307692312</v>
+        <v>59.32203389830521</v>
       </c>
       <c r="L144" t="n">
         <v>8.627000000000002</v>
@@ -7623,7 +7645,7 @@
         <v>13.34000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>43.92523364485994</v>
+        <v>36.00000000000043</v>
       </c>
       <c r="L145" t="n">
         <v>8.658000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>13.37000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>66.66666666666691</v>
+        <v>48.00000000000021</v>
       </c>
       <c r="L146" t="n">
         <v>8.679</v>
@@ -7725,7 +7747,7 @@
         <v>13.49000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>48.14814814814818</v>
+        <v>-13.63636363636377</v>
       </c>
       <c r="L147" t="n">
         <v>8.691000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>13.49000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>42.85714285714291</v>
+        <v>-13.63636363636377</v>
       </c>
       <c r="L148" t="n">
         <v>8.685000000000002</v>
@@ -7827,7 +7849,7 @@
         <v>13.49000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>42.85714285714291</v>
+        <v>-7.317073170731982</v>
       </c>
       <c r="L149" t="n">
         <v>8.679000000000002</v>
@@ -7878,7 +7900,7 @@
         <v>13.49000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>41.05263157894735</v>
+        <v>-5.000000000000333</v>
       </c>
       <c r="L150" t="n">
         <v>8.676000000000002</v>
@@ -7929,7 +7951,7 @@
         <v>13.61000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>16.66666666666673</v>
+        <v>-26.92307692307705</v>
       </c>
       <c r="L151" t="n">
         <v>8.662000000000003</v>
@@ -7980,7 +8002,7 @@
         <v>13.74000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>26.60550458715609</v>
+        <v>-34.69387755102038</v>
       </c>
       <c r="L152" t="n">
         <v>8.661000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>13.87000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>9.401709401709368</v>
+        <v>-43.85964912280699</v>
       </c>
       <c r="L153" t="n">
         <v>8.631000000000002</v>
@@ -8082,7 +8104,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>11.66666666666659</v>
+        <v>-32.14285714285738</v>
       </c>
       <c r="L154" t="n">
         <v>8.609000000000002</v>
@@ -8133,7 +8155,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>10.9243697478991</v>
+        <v>-39.62264150943404</v>
       </c>
       <c r="L155" t="n">
         <v>8.591000000000003</v>
@@ -8184,7 +8206,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>-21.95121951219508</v>
       </c>
       <c r="L156" t="n">
         <v>8.570000000000004</v>
@@ -8235,7 +8257,7 @@
         <v>13.95000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>7.407407407407414</v>
+        <v>-8.695652173912842</v>
       </c>
       <c r="L157" t="n">
         <v>8.566000000000003</v>
@@ -8286,7 +8308,7 @@
         <v>13.95000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.11111111111107</v>
+        <v>-8.695652173912842</v>
       </c>
       <c r="L158" t="n">
         <v>8.562000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>14.06000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>0.9900990099009691</v>
+        <v>12.28070175438601</v>
       </c>
       <c r="L159" t="n">
         <v>8.569000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>14.08000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>6.000000000000039</v>
+        <v>44.68085106382974</v>
       </c>
       <c r="L160" t="n">
         <v>8.577999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>14.15000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>13.2075471698112</v>
+        <v>36.58536585365817</v>
       </c>
       <c r="L161" t="n">
         <v>8.606</v>
@@ -8490,7 +8512,7 @@
         <v>14.15000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>13.2075471698112</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
         <v>8.621</v>
@@ -8541,7 +8563,7 @@
         <v>14.32000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>-17.75700934579451</v>
+        <v>19.04761904761907</v>
       </c>
       <c r="L163" t="n">
         <v>8.632000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>14.37000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>-8.411214953271012</v>
+        <v>27.65957446808524</v>
       </c>
       <c r="L164" t="n">
         <v>8.645</v>
@@ -8643,7 +8665,7 @@
         <v>14.38000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>-3.846153846153932</v>
+        <v>29.16666666666676</v>
       </c>
       <c r="L165" t="n">
         <v>8.659000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>14.42000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>-2.857142857142789</v>
+        <v>27.65957446808524</v>
       </c>
       <c r="L166" t="n">
         <v>8.677000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>14.44000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>7.368421052631587</v>
+        <v>22.44897959183653</v>
       </c>
       <c r="L167" t="n">
         <v>8.688000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>14.46000000000001</v>
       </c>
       <c r="K168" t="n">
-        <v>5.154639175257792</v>
+        <v>-4.999999999999867</v>
       </c>
       <c r="L168" t="n">
         <v>8.697000000000001</v>
@@ -8847,7 +8869,7 @@
         <v>14.48000000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>3.030303030303139</v>
+        <v>-15.00000000000011</v>
       </c>
       <c r="L169" t="n">
         <v>8.693000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>14.59000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>12.72727272727276</v>
+        <v>-4.545454545454435</v>
       </c>
       <c r="L170" t="n">
         <v>8.698000000000002</v>
@@ -8949,7 +8971,7 @@
         <v>14.73000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>10.71428571428562</v>
+        <v>-27.58620689655166</v>
       </c>
       <c r="L171" t="n">
         <v>8.682000000000002</v>
@@ -9000,7 +9022,7 @@
         <v>14.74000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>-2.000000000000131</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>8.665000000000003</v>
@@ -9051,7 +9073,7 @@
         <v>14.74000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>12.64367816091946</v>
+        <v>-13.51351351351367</v>
       </c>
       <c r="L173" t="n">
         <v>8.665000000000003</v>
@@ -9102,7 +9124,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>2.222222222222372</v>
+        <v>-28.57142857142839</v>
       </c>
       <c r="L174" t="n">
         <v>8.654000000000002</v>
@@ -9153,7 +9175,7 @@
         <v>14.98000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>18.51851851851861</v>
+        <v>3.571428571428503</v>
       </c>
       <c r="L175" t="n">
         <v>8.660000000000002</v>
@@ -9204,7 +9226,7 @@
         <v>15.15000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>2.400000000000091</v>
+        <v>-18.30985915492951</v>
       </c>
       <c r="L176" t="n">
         <v>8.645000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>15.16000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>-2.479338842975156</v>
+        <v>-17.14285714285709</v>
       </c>
       <c r="L177" t="n">
         <v>8.631000000000002</v>
@@ -9306,7 +9328,7 @@
         <v>15.18000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.8130081300812844</v>
+        <v>-11.42857142857148</v>
       </c>
       <c r="L178" t="n">
         <v>8.621000000000002</v>
@@ -9357,7 +9379,7 @@
         <v>15.30000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>-9.859154929577542</v>
       </c>
       <c r="L179" t="n">
         <v>8.625000000000002</v>
@@ -9408,7 +9430,7 @@
         <v>15.42000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-10.44776119402992</v>
+        <v>-7.246376811594091</v>
       </c>
       <c r="L180" t="n">
         <v>8.606000000000002</v>
@@ -9459,7 +9481,7 @@
         <v>15.42000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-16.5354330708661</v>
+        <v>-5.882352941176379</v>
       </c>
       <c r="L181" t="n">
         <v>8.601000000000003</v>
@@ -9510,7 +9532,7 @@
         <v>15.42000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.5354330708661</v>
+        <v>-5.882352941176379</v>
       </c>
       <c r="L182" t="n">
         <v>8.597000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>15.44</v>
       </c>
       <c r="K183" t="n">
-        <v>-5.357142857142755</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>8.591000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>15.47000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-12.7272727272728</v>
+        <v>-42.85714285714317</v>
       </c>
       <c r="L184" t="n">
         <v>8.588000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>15.47000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>-13.76146788990831</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L185" t="n">
         <v>8.567</v>
@@ -9714,7 +9736,7 @@
         <v>15.52000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>-12.7272727272728</v>
+        <v>5.555555555555445</v>
       </c>
       <c r="L186" t="n">
         <v>8.568000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>15.52000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>-11.11111111111108</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>8.57</v>
@@ -9816,7 +9838,7 @@
         <v>15.53000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-10.28037383177568</v>
+        <v>-56.52173913043425</v>
       </c>
       <c r="L188" t="n">
         <v>8.568999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>-14.28571428571433</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L189" t="n">
         <v>8.548999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>-26.73267326732675</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L190" t="n">
         <v>8.541</v>
@@ -9969,7 +9991,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-14.94252873563211</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L191" t="n">
         <v>8.532999999999998</v>
@@ -10020,7 +10042,7 @@
         <v>15.67000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>-5.376344086021403</v>
+        <v>4.347826086956387</v>
       </c>
       <c r="L192" t="n">
         <v>8.532</v>
@@ -10071,7 +10093,7 @@
         <v>15.67000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.376344086021403</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L193" t="n">
         <v>8.532999999999999</v>
@@ -10122,7 +10144,7 @@
         <v>15.67000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>1.149425287356298</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L194" t="n">
         <v>8.537000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>15.73000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>-30.66666666666672</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>8.535</v>
@@ -10224,7 +10246,7 @@
         <v>15.73000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>-10.34482758620698</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>8.528</v>
@@ -10275,7 +10297,7 @@
         <v>15.79000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>1.587301587301551</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>8.527000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>15.88000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>11.42857142857142</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L198" t="n">
         <v>8.536000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>15.96000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-18.18181818181801</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L199" t="n">
         <v>8.544</v>
@@ -10428,7 +10450,7 @@
         <v>16.03000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>11.47540983606556</v>
+        <v>34.88372093023252</v>
       </c>
       <c r="L200" t="n">
         <v>8.559000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>16.11000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>-1.449275362318807</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>8.566000000000003</v>
@@ -10530,7 +10552,7 @@
         <v>16.19</v>
       </c>
       <c r="K202" t="n">
-        <v>9.090909090909133</v>
+        <v>15.38461538461546</v>
       </c>
       <c r="L202" t="n">
         <v>8.574000000000002</v>
@@ -10581,7 +10603,7 @@
         <v>16.27</v>
       </c>
       <c r="K203" t="n">
-        <v>1.204819277108411</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>8.574000000000002</v>
@@ -10632,7 +10654,7 @@
         <v>16.28</v>
       </c>
       <c r="K204" t="n">
-        <v>6.172839506172964</v>
+        <v>12.72727272727293</v>
       </c>
       <c r="L204" t="n">
         <v>8.575000000000003</v>
@@ -10683,7 +10705,7 @@
         <v>16.29</v>
       </c>
       <c r="K205" t="n">
-        <v>7.317073170731829</v>
+        <v>14.28571428571451</v>
       </c>
       <c r="L205" t="n">
         <v>8.583000000000002</v>
@@ -10734,7 +10756,7 @@
         <v>16.35</v>
       </c>
       <c r="K206" t="n">
-        <v>8.433734939759125</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L206" t="n">
         <v>8.597000000000003</v>
@@ -10785,7 +10807,7 @@
         <v>16.36</v>
       </c>
       <c r="K207" t="n">
-        <v>9.523809523809614</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>8.606000000000003</v>
@@ -10836,7 +10858,7 @@
         <v>16.37</v>
       </c>
       <c r="K208" t="n">
-        <v>9.523809523809634</v>
+        <v>17.07317073170782</v>
       </c>
       <c r="L208" t="n">
         <v>8.605000000000002</v>
@@ -10887,7 +10909,7 @@
         <v>16.4</v>
       </c>
       <c r="K209" t="n">
-        <v>22.5000000000002</v>
+        <v>8.108108108108148</v>
       </c>
       <c r="L209" t="n">
         <v>8.615000000000004</v>
@@ -10938,7 +10960,7 @@
         <v>16.43</v>
       </c>
       <c r="K210" t="n">
-        <v>18.0722891566267</v>
+        <v>25.00000000000055</v>
       </c>
       <c r="L210" t="n">
         <v>8.615000000000004</v>
@@ -10989,7 +11011,7 @@
         <v>16.46</v>
       </c>
       <c r="K211" t="n">
-        <v>20.93023255813964</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L211" t="n">
         <v>8.626000000000003</v>
@@ -11040,7 +11062,7 @@
         <v>16.51</v>
       </c>
       <c r="K212" t="n">
-        <v>19.04761904761919</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L212" t="n">
         <v>8.634000000000004</v>
@@ -11091,7 +11113,7 @@
         <v>16.51</v>
       </c>
       <c r="K213" t="n">
-        <v>19.04761904761919</v>
+        <v>65.21739130434786</v>
       </c>
       <c r="L213" t="n">
         <v>8.650000000000002</v>
@@ -11142,7 +11164,7 @@
         <v>16.54</v>
       </c>
       <c r="K214" t="n">
-        <v>21.83908045977025</v>
+        <v>67.99999999999997</v>
       </c>
       <c r="L214" t="n">
         <v>8.668000000000003</v>
@@ -11193,7 +11215,7 @@
         <v>16.56</v>
       </c>
       <c r="K215" t="n">
-        <v>32.530120481928</v>
+        <v>61.90476190476223</v>
       </c>
       <c r="L215" t="n">
         <v>8.687000000000003</v>
@@ -11244,7 +11266,7 @@
         <v>16.58</v>
       </c>
       <c r="K216" t="n">
-        <v>34.1176470588238</v>
+        <v>63.63636363636341</v>
       </c>
       <c r="L216" t="n">
         <v>8.702000000000002</v>
@@ -11295,7 +11317,7 @@
         <v>16.59</v>
       </c>
       <c r="K217" t="n">
-        <v>27.50000000000026</v>
+        <v>63.63636363636341</v>
       </c>
       <c r="L217" t="n">
         <v>8.715000000000002</v>
@@ -11346,7 +11368,7 @@
         <v>16.62</v>
       </c>
       <c r="K218" t="n">
-        <v>13.51351351351366</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L218" t="n">
         <v>8.726000000000003</v>
@@ -11397,7 +11419,7 @@
         <v>16.62</v>
       </c>
       <c r="K219" t="n">
-        <v>27.27272727272766</v>
+        <v>57.89473684210565</v>
       </c>
       <c r="L219" t="n">
         <v>8.734000000000002</v>
@@ -11448,7 +11470,7 @@
         <v>16.62</v>
       </c>
       <c r="K220" t="n">
-        <v>18.64406779661041</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L220" t="n">
         <v>8.745000000000001</v>
@@ -11499,7 +11521,7 @@
         <v>16.65</v>
       </c>
       <c r="K221" t="n">
-        <v>40.74074074074113</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L221" t="n">
         <v>8.756000000000002</v>
@@ -11550,7 +11572,7 @@
         <v>16.68</v>
       </c>
       <c r="K222" t="n">
-        <v>22.44897959183685</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L222" t="n">
         <v>8.759000000000002</v>
@@ -11601,7 +11623,7 @@
         <v>16.68</v>
       </c>
       <c r="K223" t="n">
-        <v>46.34146341463441</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>8.762000000000002</v>
@@ -11652,7 +11674,7 @@
         <v>16.68</v>
       </c>
       <c r="K224" t="n">
-        <v>45.00000000000009</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L224" t="n">
         <v>8.762000000000002</v>
@@ -11703,7 +11725,7 @@
         <v>16.68</v>
       </c>
       <c r="K225" t="n">
-        <v>43.58974358974351</v>
+        <v>-39.99999999999858</v>
       </c>
       <c r="L225" t="n">
         <v>8.760000000000002</v>
@@ -11754,7 +11776,7 @@
         <v>16.68</v>
       </c>
       <c r="K226" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L226" t="n">
         <v>8.756000000000004</v>
@@ -11805,7 +11827,7 @@
         <v>16.82</v>
       </c>
       <c r="K227" t="n">
-        <v>-8.695652173913228</v>
+        <v>-69.99999999999929</v>
       </c>
       <c r="L227" t="n">
         <v>8.739000000000003</v>
@@ -11856,7 +11878,7 @@
         <v>16.95</v>
       </c>
       <c r="K228" t="n">
-        <v>17.24137931034461</v>
+        <v>-3.030303030302916</v>
       </c>
       <c r="L228" t="n">
         <v>8.738000000000003</v>
@@ -11907,7 +11929,7 @@
         <v>17.06</v>
       </c>
       <c r="K229" t="n">
-        <v>-6.060606060605898</v>
+        <v>-27.27272727272679</v>
       </c>
       <c r="L229" t="n">
         <v>8.726000000000003</v>
@@ -11958,7 +11980,7 @@
         <v>17.15</v>
       </c>
       <c r="K230" t="n">
-        <v>11.11111111111108</v>
+        <v>-11.99999999999966</v>
       </c>
       <c r="L230" t="n">
         <v>8.723000000000003</v>
@@ -12009,7 +12031,7 @@
         <v>17.26000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>-7.500000000000022</v>
+        <v>-24.13793103448263</v>
       </c>
       <c r="L231" t="n">
         <v>8.706000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>17.37</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-4.347826086956399</v>
       </c>
       <c r="L232" t="n">
         <v>8.703000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>17.37</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>-4.347826086956399</v>
       </c>
       <c r="L233" t="n">
         <v>8.700000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>17.37</v>
       </c>
       <c r="K234" t="n">
-        <v>-3.6144578313252</v>
+        <v>-4.347826086956399</v>
       </c>
       <c r="L234" t="n">
         <v>8.697000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>17.39</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.6144578313252</v>
+        <v>-1.408450704225313</v>
       </c>
       <c r="L235" t="n">
         <v>8.696000000000002</v>
@@ -12264,7 +12286,7 @@
         <v>17.39</v>
       </c>
       <c r="K236" t="n">
-        <v>-6.172839506172664</v>
+        <v>22.80701754385963</v>
       </c>
       <c r="L236" t="n">
         <v>8.695</v>
@@ -12315,7 +12337,7 @@
         <v>17.39</v>
       </c>
       <c r="K237" t="n">
-        <v>-4.999999999999845</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>8.708</v>
@@ -12366,7 +12388,7 @@
         <v>17.39</v>
       </c>
       <c r="K238" t="n">
-        <v>-1.29870129870126</v>
+        <v>33.33333333333297</v>
       </c>
       <c r="L238" t="n">
         <v>8.708</v>
@@ -12417,7 +12439,7 @@
         <v>17.39</v>
       </c>
       <c r="K239" t="n">
-        <v>-1.29870129870126</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L239" t="n">
         <v>8.718999999999999</v>
@@ -12468,7 +12490,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>8.722</v>
@@ -12519,7 +12541,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>-3.999999999999877</v>
+        <v>99.99999999999409</v>
       </c>
       <c r="L241" t="n">
         <v>8.736000000000001</v>
@@ -12570,7 +12592,7 @@
         <v>17.43000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>3.999999999999877</v>
+        <v>99.99999999999409</v>
       </c>
       <c r="L242" t="n">
         <v>8.742000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>17.44</v>
       </c>
       <c r="K243" t="n">
-        <v>5.263157894736695</v>
+        <v>99.99999999999746</v>
       </c>
       <c r="L243" t="n">
         <v>8.749000000000001</v>
@@ -12672,7 +12694,7 @@
         <v>17.45000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>6.493506493506529</v>
+        <v>99.99999999999703</v>
       </c>
       <c r="L244" t="n">
         <v>8.757000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>17.45000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>6.493506493506529</v>
+        <v>99.99999999999703</v>
       </c>
       <c r="L245" t="n">
         <v>8.763000000000002</v>
@@ -12774,7 +12796,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>12.19512195121936</v>
+        <v>99.99999999999677</v>
       </c>
       <c r="L246" t="n">
         <v>8.774000000000001</v>
@@ -12825,7 +12847,7 @@
         <v>17.52000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>31.42857142857124</v>
+        <v>69.23076923076776</v>
       </c>
       <c r="L247" t="n">
         <v>8.783000000000001</v>
@@ -12876,7 +12898,7 @@
         <v>17.52000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>15.78947368421039</v>
+        <v>69.23076923076776</v>
       </c>
       <c r="L248" t="n">
         <v>8.792000000000002</v>
@@ -12927,7 +12949,7 @@
         <v>17.52000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>43.47826086956464</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L249" t="n">
         <v>8.801000000000002</v>
@@ -12978,7 +13000,7 @@
         <v>17.52000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>29.72972972972921</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L250" t="n">
         <v>8.809000000000001</v>
@@ -13029,7 +13051,7 @@
         <v>17.54000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>85.71428571428544</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L251" t="n">
         <v>8.819000000000001</v>
@@ -13080,7 +13102,7 @@
         <v>17.56000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>57.89473684210458</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L252" t="n">
         <v>8.824000000000002</v>
@@ -13131,7 +13153,7 @@
         <v>17.58000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>42.85714285714262</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L253" t="n">
         <v>8.826000000000002</v>
@@ -13182,7 +13204,7 @@
         <v>17.58000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>42.85714285714262</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L254" t="n">
         <v>8.827000000000002</v>
@@ -13233,7 +13255,7 @@
         <v>17.58000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>36.8421052631578</v>
+        <v>-50</v>
       </c>
       <c r="L255" t="n">
         <v>8.828000000000003</v>
@@ -13284,7 +13306,7 @@
         <v>17.58000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>36.8421052631578</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>8.824000000000003</v>
@@ -13335,7 +13357,7 @@
         <v>17.67000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>57.14285714285696</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L257" t="n">
         <v>8.831000000000005</v>
@@ -13386,7 +13408,7 @@
         <v>17.83000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L258" t="n">
         <v>8.822000000000005</v>
@@ -13437,7 +13459,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>27.86885245901625</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L259" t="n">
         <v>8.830000000000004</v>
@@ -13488,7 +13510,7 @@
         <v>18.08000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>35.29411764705887</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L260" t="n">
         <v>8.846000000000004</v>
@@ -13590,7 +13612,7 @@
         <v>18.33000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>40.0000000000002</v>
+        <v>44.00000000000001</v>
       </c>
       <c r="L262" t="n">
         <v>8.911000000000005</v>
@@ -13641,7 +13663,7 @@
         <v>18.33000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>39.32584269662935</v>
+        <v>44.00000000000001</v>
       </c>
       <c r="L263" t="n">
         <v>8.944000000000004</v>
@@ -13692,7 +13714,7 @@
         <v>18.33000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>38.63636363636366</v>
+        <v>44.00000000000001</v>
       </c>
       <c r="L264" t="n">
         <v>8.977000000000004</v>
@@ -13743,7 +13765,7 @@
         <v>18.38</v>
       </c>
       <c r="K265" t="n">
-        <v>41.93548387096778</v>
+        <v>47.50000000000004</v>
       </c>
       <c r="L265" t="n">
         <v>9.015000000000004</v>
@@ -13794,7 +13816,7 @@
         <v>18.49</v>
       </c>
       <c r="K266" t="n">
-        <v>23.2323232323234</v>
+        <v>21.95121951219517</v>
       </c>
       <c r="L266" t="n">
         <v>9.042000000000003</v>
@@ -13845,7 +13867,7 @@
         <v>18.57</v>
       </c>
       <c r="K267" t="n">
-        <v>16.19047619047628</v>
+        <v>35.13513513513535</v>
       </c>
       <c r="L267" t="n">
         <v>9.052000000000003</v>
@@ -13896,7 +13918,7 @@
         <v>18.7</v>
       </c>
       <c r="K268" t="n">
-        <v>25.42372881355946</v>
+        <v>31.42857142857171</v>
       </c>
       <c r="L268" t="n">
         <v>9.091000000000003</v>
@@ -13947,7 +13969,7 @@
         <v>18.72000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>23.33333333333329</v>
+        <v>18.74999999999986</v>
       </c>
       <c r="L269" t="n">
         <v>9.111000000000002</v>
@@ -13998,7 +14020,7 @@
         <v>18.73</v>
       </c>
       <c r="K270" t="n">
-        <v>22.31404958677687</v>
+        <v>-20</v>
       </c>
       <c r="L270" t="n">
         <v>9.122000000000003</v>
@@ -14049,7 +14071,7 @@
         <v>18.75</v>
       </c>
       <c r="K271" t="n">
-        <v>22.31404958677687</v>
+        <v>-4.761904761905105</v>
       </c>
       <c r="L271" t="n">
         <v>9.115000000000004</v>
@@ -14100,7 +14122,7 @@
         <v>19.11000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>41.93548387096774</v>
+        <v>43.58974358974351</v>
       </c>
       <c r="L272" t="n">
         <v>9.149000000000004</v>
@@ -14151,7 +14173,7 @@
         <v>19.48000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>15.78947368421045</v>
+        <v>-2.608695652174007</v>
       </c>
       <c r="L273" t="n">
         <v>9.146000000000004</v>
@@ -14202,7 +14224,7 @@
         <v>19.76000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>26.60550458715593</v>
+        <v>14.49275362318842</v>
       </c>
       <c r="L274" t="n">
         <v>9.171000000000003</v>
@@ -14253,7 +14275,7 @@
         <v>19.86000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>29.82456140350874</v>
+        <v>29.92700729926999</v>
       </c>
       <c r="L275" t="n">
         <v>9.201000000000004</v>
@@ -14304,7 +14326,7 @@
         <v>19.93000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>25.9574468085106</v>
+        <v>30.88235294117631</v>
       </c>
       <c r="L276" t="n">
         <v>9.235000000000003</v>
@@ -14355,7 +14377,7 @@
         <v>19.96000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>21.39737991266374</v>
+        <v>20.63492063492053</v>
       </c>
       <c r="L277" t="n">
         <v>9.274000000000004</v>
@@ -14406,7 +14428,7 @@
         <v>20.09000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>23.00884955752205</v>
+        <v>10.94890510948904</v>
       </c>
       <c r="L278" t="n">
         <v>9.287000000000004</v>
@@ -14457,7 +14479,7 @@
         <v>20.44000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>28.68852459016385</v>
+        <v>29.82456140350862</v>
       </c>
       <c r="L279" t="n">
         <v>9.337000000000005</v>
@@ -14508,7 +14530,7 @@
         <v>20.55000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>29.55465587044529</v>
+        <v>33.33333333333326</v>
       </c>
       <c r="L280" t="n">
         <v>9.399000000000004</v>
@@ -14559,7 +14581,7 @@
         <v>20.71000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>28.39506172839503</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L281" t="n">
         <v>9.475000000000005</v>
@@ -14610,7 +14632,7 @@
         <v>20.74000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>29.46058091286294</v>
+        <v>58.73015873015851</v>
       </c>
       <c r="L282" t="n">
         <v>9.512000000000004</v>
@@ -14661,7 +14683,7 @@
         <v>20.90000000000001</v>
       </c>
       <c r="K283" t="n">
-        <v>21.40077821011663</v>
+        <v>26.31578947368402</v>
       </c>
       <c r="L283" t="n">
         <v>9.570000000000004</v>
@@ -14712,7 +14734,7 @@
         <v>21.06000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>26.0073260073259</v>
+        <v>29.99999999999979</v>
       </c>
       <c r="L284" t="n">
         <v>9.616000000000003</v>
@@ -14763,7 +14785,7 @@
         <v>21.09000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>25.46125461254606</v>
+        <v>39.65517241379293</v>
       </c>
       <c r="L285" t="n">
         <v>9.655000000000003</v>
@@ -14814,7 +14836,7 @@
         <v>21.11000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>29.77099236641206</v>
+        <v>40.869565217391</v>
       </c>
       <c r="L286" t="n">
         <v>9.699000000000002</v>
@@ -14865,7 +14887,7 @@
         <v>21.17000000000001</v>
       </c>
       <c r="K287" t="n">
-        <v>30.76923076923065</v>
+        <v>50</v>
       </c>
       <c r="L287" t="n">
         <v>9.740000000000002</v>
@@ -14916,7 +14938,7 @@
         <v>21.22000000000001</v>
       </c>
       <c r="K288" t="n">
-        <v>28.57142857142841</v>
+        <v>30.76923076923076</v>
       </c>
       <c r="L288" t="n">
         <v>9.799000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>21.22000000000001</v>
       </c>
       <c r="K289" t="n">
-        <v>29.59999999999993</v>
+        <v>19.40298507462667</v>
       </c>
       <c r="L289" t="n">
         <v>9.823</v>
@@ -15018,7 +15040,7 @@
         <v>21.23000000000001</v>
       </c>
       <c r="K290" t="n">
-        <v>30.39999999999991</v>
+        <v>-3.846153846154109</v>
       </c>
       <c r="L290" t="n">
         <v>9.837</v>
@@ -15069,7 +15091,7 @@
         <v>21.49000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>17.51824817518246</v>
+        <v>-33.33333333333349</v>
       </c>
       <c r="L291" t="n">
         <v>9.809000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>21.57000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>8.130081300812977</v>
+        <v>-1.492537313432816</v>
       </c>
       <c r="L292" t="n">
         <v>9.792000000000002</v>
@@ -15171,7 +15193,7 @@
         <v>21.66000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>30.27522935779818</v>
+        <v>-13.33333333333347</v>
       </c>
       <c r="L293" t="n">
         <v>9.800000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>21.75000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>14.57286432160801</v>
+        <v>-30.30303030303079</v>
       </c>
       <c r="L294" t="n">
         <v>9.783000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>21.75000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>10.05291005291002</v>
+        <v>-28.12500000000025</v>
       </c>
       <c r="L295" t="n">
         <v>9.763000000000002</v>
@@ -15324,7 +15346,7 @@
         <v>21.84000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>18.32460732984291</v>
+        <v>-4.477611940298713</v>
       </c>
       <c r="L296" t="n">
         <v>9.754000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>21.89000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>17.09844559585493</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L297" t="n">
         <v>9.746000000000002</v>
@@ -15426,7 +15448,7 @@
         <v>21.96000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>28.34224598930481</v>
+        <v>-8.108108108108231</v>
       </c>
       <c r="L298" t="n">
         <v>9.740000000000004</v>
@@ -15477,7 +15499,7 @@
         <v>22.18000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>-2.298850574712601</v>
+        <v>-30.52631578947373</v>
       </c>
       <c r="L299" t="n">
         <v>9.712000000000003</v>
@@ -15528,7 +15550,7 @@
         <v>22.37</v>
       </c>
       <c r="K300" t="n">
-        <v>2.197802197802159</v>
+        <v>18.18181818181829</v>
       </c>
       <c r="L300" t="n">
         <v>9.702000000000004</v>
@@ -15579,7 +15601,7 @@
         <v>22.42</v>
       </c>
       <c r="K301" t="n">
-        <v>-9.941520467836309</v>
+        <v>3.52941176470604</v>
       </c>
       <c r="L301" t="n">
         <v>9.713000000000005</v>
@@ -15630,7 +15652,7 @@
         <v>22.45</v>
       </c>
       <c r="K302" t="n">
-        <v>-9.941520467836309</v>
+        <v>-11.39240506329118</v>
       </c>
       <c r="L302" t="n">
         <v>9.713000000000005</v>
@@ -15681,7 +15703,7 @@
         <v>22.47</v>
       </c>
       <c r="K303" t="n">
-        <v>0.6369426751592263</v>
+        <v>2.777777777777737</v>
       </c>
       <c r="L303" t="n">
         <v>9.706000000000007</v>
@@ -15732,7 +15754,7 @@
         <v>22.48</v>
       </c>
       <c r="K304" t="n">
-        <v>-11.2676056338029</v>
+        <v>1.369863013698607</v>
       </c>
       <c r="L304" t="n">
         <v>9.707000000000004</v>
@@ -15783,7 +15805,7 @@
         <v>22.57</v>
       </c>
       <c r="K305" t="n">
-        <v>-18.91891891891913</v>
+        <v>-23.2876712328768</v>
       </c>
       <c r="L305" t="n">
         <v>9.699000000000003</v>
@@ -15834,7 +15856,7 @@
         <v>22.64</v>
       </c>
       <c r="K306" t="n">
-        <v>-12.41830065359482</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L306" t="n">
         <v>9.689000000000004</v>
@@ -15885,7 +15907,7 @@
         <v>22.64</v>
       </c>
       <c r="K307" t="n">
-        <v>-8.843537414966089</v>
+        <v>-17.6470588235294</v>
       </c>
       <c r="L307" t="n">
         <v>9.684000000000005</v>
@@ -15936,7 +15958,7 @@
         <v>22.71</v>
       </c>
       <c r="K308" t="n">
-        <v>-16.77852348993298</v>
+        <v>5.660377358490472</v>
       </c>
       <c r="L308" t="n">
         <v>9.665000000000003</v>
@@ -15987,7 +16009,7 @@
         <v>22.78</v>
       </c>
       <c r="K309" t="n">
-        <v>-11.53846153846158</v>
+        <v>-21.95121951219508</v>
       </c>
       <c r="L309" t="n">
         <v>9.675000000000002</v>
@@ -16038,7 +16060,7 @@
         <v>22.90000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>-18.56287425149699</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L310" t="n">
         <v>9.654000000000002</v>
@@ -16089,7 +16111,7 @@
         <v>23.14000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>-17.57575757575754</v>
+        <v>-53.62318840579662</v>
       </c>
       <c r="L311" t="n">
         <v>9.614000000000001</v>
@@ -16140,7 +16162,7 @@
         <v>23.23000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>-16.86746987951803</v>
+        <v>-39.47368421052591</v>
       </c>
       <c r="L312" t="n">
         <v>9.586000000000002</v>
@@ -16191,7 +16213,7 @@
         <v>23.35000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>-14.79289940828401</v>
+        <v>-19.54022988505736</v>
       </c>
       <c r="L313" t="n">
         <v>9.568000000000001</v>
@@ -16242,7 +16264,7 @@
         <v>23.48000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>-1.734104046242734</v>
+        <v>5.494505494505529</v>
       </c>
       <c r="L314" t="n">
         <v>9.564000000000002</v>
@@ -16293,7 +16315,7 @@
         <v>23.70000000000001</v>
       </c>
       <c r="K315" t="n">
-        <v>-12.8205128205128</v>
+        <v>-22.64150943396216</v>
       </c>
       <c r="L315" t="n">
         <v>9.547000000000002</v>
@@ -16344,7 +16366,7 @@
         <v>23.86000000000001</v>
       </c>
       <c r="K316" t="n">
-        <v>-8.910891089108883</v>
+        <v>-6.557377049180301</v>
       </c>
       <c r="L316" t="n">
         <v>9.539000000000003</v>
@@ -16395,7 +16417,7 @@
         <v>23.96000000000001</v>
       </c>
       <c r="K317" t="n">
-        <v>-11.11111111111113</v>
+        <v>-8.79999999999993</v>
       </c>
       <c r="L317" t="n">
         <v>9.521000000000003</v>
@@ -16446,7 +16468,7 @@
         <v>24.04000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>-18.26923076923074</v>
+        <v>-20.63492063492059</v>
       </c>
       <c r="L318" t="n">
         <v>9.502000000000002</v>
@@ -16497,7 +16519,7 @@
         <v>24.33000000000001</v>
       </c>
       <c r="K319" t="n">
-        <v>6.046511627906934</v>
+        <v>10.48951048951039</v>
       </c>
       <c r="L319" t="n">
         <v>9.505000000000003</v>
@@ -16548,7 +16570,7 @@
         <v>24.54000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>-12.44239631336403</v>
+        <v>12.85714285714285</v>
       </c>
       <c r="L320" t="n">
         <v>9.499000000000002</v>
@@ -16599,7 +16621,7 @@
         <v>24.54000000000001</v>
       </c>
       <c r="K321" t="n">
-        <v>-10.37735849056605</v>
+        <v>6.870229007633584</v>
       </c>
       <c r="L321" t="n">
         <v>9.517000000000001</v>
@@ -16650,7 +16672,7 @@
         <v>24.70000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>-1.333333333333303</v>
+        <v>9.629629629629703</v>
       </c>
       <c r="L322" t="n">
         <v>9.542000000000002</v>
@@ -16701,7 +16723,7 @@
         <v>24.70000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>-2.242152466367661</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>9.555000000000003</v>
@@ -16752,7 +16774,7 @@
         <v>24.89000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>-9.543568464730221</v>
+        <v>2.521008403361445</v>
       </c>
       <c r="L324" t="n">
         <v>9.536000000000001</v>
@@ -16803,7 +16825,7 @@
         <v>25.07000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>1.600000000000035</v>
+        <v>4.132231404958746</v>
       </c>
       <c r="L325" t="n">
         <v>9.557000000000002</v>
@@ -16854,7 +16876,7 @@
         <v>25.08000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>-1.639344262295046</v>
+        <v>12.50000000000008</v>
       </c>
       <c r="L326" t="n">
         <v>9.561000000000002</v>
@@ -16905,7 +16927,7 @@
         <v>25.20000000000001</v>
       </c>
       <c r="K327" t="n">
-        <v>-6.25</v>
+        <v>8.620689655172383</v>
       </c>
       <c r="L327" t="n">
         <v>9.563000000000002</v>
@@ -16956,7 +16978,7 @@
         <v>25.31000000000001</v>
       </c>
       <c r="K328" t="n">
-        <v>0.7692307692307524</v>
+        <v>-8.163265306122453</v>
       </c>
       <c r="L328" t="n">
         <v>9.584000000000003</v>
@@ -17007,7 +17029,7 @@
         <v>25.32000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>-1.574803149606264</v>
+        <v>17.948717948718</v>
       </c>
       <c r="L329" t="n">
         <v>9.577000000000002</v>
@@ -17058,7 +17080,7 @@
         <v>25.37000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>1.214574898785398</v>
+        <v>10.84337349397586</v>
       </c>
       <c r="L330" t="n">
         <v>9.586000000000002</v>
@@ -17109,7 +17131,7 @@
         <v>25.42000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>14.03508771929825</v>
+        <v>-2.777777777777709</v>
       </c>
       <c r="L331" t="n">
         <v>9.600000000000003</v>
@@ -17160,7 +17182,7 @@
         <v>25.43000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>10.90909090909092</v>
+        <v>-1.3698630136986</v>
       </c>
       <c r="L332" t="n">
         <v>9.599000000000002</v>
@@ -17211,7 +17233,7 @@
         <v>25.51000000000001</v>
       </c>
       <c r="K333" t="n">
-        <v>1.851851851851898</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L333" t="n">
         <v>9.590000000000002</v>
@@ -17262,7 +17284,7 @@
         <v>25.52</v>
       </c>
       <c r="K334" t="n">
-        <v>-3.921568627450999</v>
+        <v>-15.55555555555577</v>
       </c>
       <c r="L334" t="n">
         <v>9.601000000000003</v>
@@ -17313,7 +17335,7 @@
         <v>25.57</v>
       </c>
       <c r="K335" t="n">
-        <v>10.16042780748666</v>
+        <v>-2.040816326530952</v>
       </c>
       <c r="L335" t="n">
         <v>9.599000000000002</v>
@@ -17364,7 +17386,7 @@
         <v>25.66</v>
       </c>
       <c r="K336" t="n">
-        <v>6.666666666666746</v>
+        <v>43.4782608695657</v>
       </c>
       <c r="L336" t="n">
         <v>9.607000000000003</v>
@@ -17415,7 +17437,7 @@
         <v>25.66</v>
       </c>
       <c r="K337" t="n">
-        <v>12.94117647058831</v>
+        <v>25.71428571428634</v>
       </c>
       <c r="L337" t="n">
         <v>9.627000000000002</v>
@@ -17466,7 +17488,7 @@
         <v>25.74</v>
       </c>
       <c r="K338" t="n">
-        <v>22.35294117647059</v>
+        <v>38.0952380952382</v>
       </c>
       <c r="L338" t="n">
         <v>9.644000000000002</v>
@@ -17517,7 +17539,7 @@
         <v>25.95</v>
       </c>
       <c r="K339" t="n">
-        <v>18.51851851851859</v>
+        <v>72.41379310344892</v>
       </c>
       <c r="L339" t="n">
         <v>9.681000000000003</v>
@@ -17568,7 +17590,7 @@
         <v>26.01000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>30.61224489795916</v>
+        <v>52.54237288135604</v>
       </c>
       <c r="L340" t="n">
         <v>9.717000000000002</v>
@@ -17619,7 +17641,7 @@
         <v>26.01000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>30.61224489795916</v>
+        <v>51.72413793103446</v>
       </c>
       <c r="L341" t="n">
         <v>9.748000000000003</v>
@@ -17670,7 +17692,7 @@
         <v>26.07000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>25.54744525547441</v>
+        <v>78.57142857142816</v>
       </c>
       <c r="L342" t="n">
         <v>9.784000000000002</v>
@@ -17721,7 +17743,7 @@
         <v>26.17000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>30.61224489795908</v>
+        <v>81.53846153846072</v>
       </c>
       <c r="L343" t="n">
         <v>9.838000000000003</v>
@@ -17772,7 +17794,7 @@
         <v>26.37000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>56.7567567567566</v>
+        <v>84.99999999999898</v>
       </c>
       <c r="L344" t="n">
         <v>9.911000000000001</v>
@@ -17823,7 +17845,7 @@
         <v>26.57000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>30.66666666666646</v>
+        <v>42.85714285714221</v>
       </c>
       <c r="L345" t="n">
         <v>9.959</v>
@@ -17874,7 +17896,7 @@
         <v>26.67000000000002</v>
       </c>
       <c r="K346" t="n">
-        <v>35.84905660377326</v>
+        <v>48.51485148514777</v>
       </c>
       <c r="L346" t="n">
         <v>10.008</v>
@@ -17925,7 +17947,7 @@
         <v>26.87000000000002</v>
       </c>
       <c r="K347" t="n">
-        <v>29.34131736526932</v>
+        <v>18.58407079646003</v>
       </c>
       <c r="L347" t="n">
         <v>10.037</v>
@@ -17976,7 +17998,7 @@
         <v>26.97000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>28.91566265060231</v>
+        <v>9.803921568627318</v>
       </c>
       <c r="L348" t="n">
         <v>10.068</v>
@@ -18027,7 +18049,7 @@
         <v>26.97000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>28.48484848484832</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L349" t="n">
         <v>10.078</v>
@@ -18078,7 +18100,7 @@
         <v>26.97000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>32.49999999999987</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L350" t="n">
         <v>10.094</v>
@@ -18129,7 +18151,7 @@
         <v>26.97000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>30.32258064516114</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L351" t="n">
         <v>10.11</v>
@@ -18180,7 +18202,7 @@
         <v>27.07000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>21.95121951219498</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L352" t="n">
         <v>10.11</v>
@@ -18231,7 +18253,7 @@
         <v>27.17000000000002</v>
       </c>
       <c r="K353" t="n">
-        <v>20.48192771084323</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L353" t="n">
         <v>10.09</v>
@@ -18282,7 +18304,7 @@
         <v>27.17000000000002</v>
       </c>
       <c r="K354" t="n">
-        <v>19.99999999999985</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L354" t="n">
         <v>10.05</v>
@@ -18333,7 +18355,7 @@
         <v>27.22000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>19.99999999999985</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L355" t="n">
         <v>10.035</v>
@@ -18384,7 +18406,7 @@
         <v>27.25000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>13.20754716981118</v>
+        <v>-21.05263157894744</v>
       </c>
       <c r="L356" t="n">
         <v>10.007</v>
@@ -18435,7 +18457,7 @@
         <v>27.43000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>22.03389830508455</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>10.017</v>
@@ -18486,7 +18508,7 @@
         <v>27.54000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>11.1111111111111</v>
+        <v>-19.29824561403498</v>
       </c>
       <c r="L358" t="n">
         <v>10.006</v>
@@ -18537,7 +18559,7 @@
         <v>27.65000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>5.882352941176415</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>10.006</v>
@@ -18588,7 +18610,7 @@
         <v>27.65000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>9.756097560975572</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>10.006</v>
@@ -18639,7 +18661,7 @@
         <v>27.65000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>9.756097560975572</v>
+        <v>17.24137931034482</v>
       </c>
       <c r="L361" t="n">
         <v>10.006</v>
@@ -18690,7 +18712,7 @@
         <v>27.75000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>11.90476190476181</v>
+        <v>51.72413793103446</v>
       </c>
       <c r="L362" t="n">
         <v>10.026</v>
@@ -18741,7 +18763,7 @@
         <v>28.05000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>21.2765957446808</v>
+        <v>68.18181818181822</v>
       </c>
       <c r="L363" t="n">
         <v>10.086</v>
@@ -18792,7 +18814,7 @@
         <v>28.45000000000002</v>
       </c>
       <c r="K364" t="n">
-        <v>-9.615384615384642</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="L364" t="n">
         <v>10.106</v>
@@ -18843,7 +18865,7 @@
         <v>28.45000000000002</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>14.99999999999994</v>
       </c>
       <c r="L365" t="n">
         <v>10.121</v>
@@ -18894,7 +18916,7 @@
         <v>28.60000000000002</v>
       </c>
       <c r="K366" t="n">
-        <v>-12.95336787564767</v>
+        <v>-12.82051282051283</v>
       </c>
       <c r="L366" t="n">
         <v>10.124</v>
@@ -18945,7 +18967,7 @@
         <v>28.75000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>5.319148936170197</v>
+        <v>9.090909090909037</v>
       </c>
       <c r="L367" t="n">
         <v>10.124</v>
@@ -19047,7 +19069,7 @@
         <v>28.89000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>-7.291666666666598</v>
+        <v>-11.29032258064505</v>
       </c>
       <c r="L369" t="n">
         <v>10.121</v>
@@ -19098,7 +19120,7 @@
         <v>28.93000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>-5.102040816326511</v>
+        <v>-7.812499999999965</v>
       </c>
       <c r="L370" t="n">
         <v>10.111</v>
@@ -19149,7 +19171,7 @@
         <v>29.03000000000002</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>-7.812499999999965</v>
       </c>
       <c r="L371" t="n">
         <v>10.111</v>
@@ -19200,7 +19222,7 @@
         <v>29.03000000000002</v>
       </c>
       <c r="K372" t="n">
-        <v>5.102040816326511</v>
+        <v>-40.81632653061227</v>
       </c>
       <c r="L372" t="n">
         <v>10.101</v>
@@ -19251,7 +19273,7 @@
         <v>29.17000000000002</v>
       </c>
       <c r="K373" t="n">
-        <v>3.000000000000025</v>
+        <v>-19.44444444444431</v>
       </c>
       <c r="L373" t="n">
         <v>10.047</v>
@@ -19302,7 +19324,7 @@
         <v>29.24000000000002</v>
       </c>
       <c r="K374" t="n">
-        <v>-0.4830917874396032</v>
+        <v>-26.58227848101257</v>
       </c>
       <c r="L374" t="n">
         <v>10.026</v>
@@ -19353,7 +19375,7 @@
         <v>29.32000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>0.9523809523810159</v>
+        <v>2.77777777777797</v>
       </c>
       <c r="L375" t="n">
         <v>10.013</v>
@@ -19404,7 +19426,7 @@
         <v>29.33000000000001</v>
       </c>
       <c r="K376" t="n">
-        <v>1.923076923076969</v>
+        <v>-24.13793103448262</v>
       </c>
       <c r="L376" t="n">
         <v>10.014</v>
@@ -19455,7 +19477,7 @@
         <v>29.33000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>-7.368421052631521</v>
+        <v>-24.13793103448262</v>
       </c>
       <c r="L377" t="n">
         <v>10</v>
@@ -19506,7 +19528,7 @@
         <v>29.42000000000002</v>
       </c>
       <c r="K378" t="n">
-        <v>-6.3829787234043</v>
+        <v>-16.98113207547197</v>
       </c>
       <c r="L378" t="n">
         <v>9.977</v>
@@ -19557,7 +19579,7 @@
         <v>29.43000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>-13.48314606741573</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L379" t="n">
         <v>9.967000000000002</v>
@@ -19608,7 +19630,7 @@
         <v>29.46000000000002</v>
       </c>
       <c r="K380" t="n">
-        <v>-14.91712707182316</v>
+        <v>-62.79069767441855</v>
       </c>
       <c r="L380" t="n">
         <v>9.950000000000001</v>
@@ -19659,7 +19681,7 @@
         <v>29.53000000000002</v>
       </c>
       <c r="K381" t="n">
-        <v>-10.63829787234037</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L381" t="n">
         <v>9.930000000000003</v>
@@ -19710,7 +19732,7 @@
         <v>29.54000000000001</v>
       </c>
       <c r="K382" t="n">
-        <v>-17.31843575418988</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L382" t="n">
         <v>9.909000000000002</v>
@@ -19761,7 +19783,7 @@
         <v>29.56000000000002</v>
       </c>
       <c r="K383" t="n">
-        <v>-41.72185430463577</v>
+        <v>-6.250000000000417</v>
       </c>
       <c r="L383" t="n">
         <v>9.900000000000002</v>
@@ -19812,7 +19834,7 @@
         <v>29.66000000000002</v>
       </c>
       <c r="K384" t="n">
-        <v>-10.74380165289247</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>9.908000000000003</v>
@@ -19863,7 +19885,7 @@
         <v>29.75000000000002</v>
       </c>
       <c r="K385" t="n">
-        <v>-16.92307692307683</v>
+        <v>-19.04761904761883</v>
       </c>
       <c r="L385" t="n">
         <v>9.899000000000003</v>
@@ -19914,7 +19936,7 @@
         <v>29.89000000000002</v>
       </c>
       <c r="K386" t="n">
-        <v>-16.27906976744175</v>
+        <v>-39.28571428571399</v>
       </c>
       <c r="L386" t="n">
         <v>9.877000000000001</v>
@@ -19965,7 +19987,7 @@
         <v>29.91000000000002</v>
       </c>
       <c r="K387" t="n">
-        <v>-32.75862068965498</v>
+        <v>-30.61224489795877</v>
       </c>
       <c r="L387" t="n">
         <v>9.853</v>
@@ -20016,7 +20038,7 @@
         <v>30.00000000000002</v>
       </c>
       <c r="K388" t="n">
-        <v>-23.19999999999986</v>
+        <v>-8.771929824561157</v>
       </c>
       <c r="L388" t="n">
         <v>9.847</v>
@@ -20067,7 +20089,7 @@
         <v>30.16000000000002</v>
       </c>
       <c r="K389" t="n">
-        <v>-24.40944881889762</v>
+        <v>-25.71428571428557</v>
       </c>
       <c r="L389" t="n">
         <v>9.826000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>30.26000000000002</v>
       </c>
       <c r="K390" t="n">
-        <v>-18.79699248120293</v>
+        <v>-20.54794520547939</v>
       </c>
       <c r="L390" t="n">
         <v>9.818000000000001</v>
@@ -20169,7 +20191,7 @@
         <v>30.34000000000002</v>
       </c>
       <c r="K391" t="n">
-        <v>-20.6106870229007</v>
+        <v>-7.500000000000022</v>
       </c>
       <c r="L391" t="n">
         <v>9.811</v>
@@ -20220,7 +20242,7 @@
         <v>30.42000000000002</v>
       </c>
       <c r="K392" t="n">
-        <v>-25.17985611510788</v>
+        <v>-13.95348837209294</v>
       </c>
       <c r="L392" t="n">
         <v>9.797000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>30.44000000000002</v>
       </c>
       <c r="K393" t="n">
-        <v>-18.11023622047248</v>
+        <v>-30.76923076923089</v>
       </c>
       <c r="L393" t="n">
         <v>9.782999999999999</v>
@@ -20322,7 +20344,7 @@
         <v>30.50000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>-7.936507936508062</v>
+        <v>-12.00000000000027</v>
       </c>
       <c r="L394" t="n">
         <v>9.765000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>30.51000000000002</v>
       </c>
       <c r="K395" t="n">
-        <v>-14.28571428571427</v>
+        <v>9.677419354838831</v>
       </c>
       <c r="L395" t="n">
         <v>9.757000000000001</v>
@@ -20424,7 +20446,7 @@
         <v>30.59000000000002</v>
       </c>
       <c r="K396" t="n">
-        <v>-6.349206349206329</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="L396" t="n">
         <v>9.771000000000001</v>
@@ -20475,7 +20497,7 @@
         <v>30.69000000000002</v>
       </c>
       <c r="K397" t="n">
-        <v>1.470588235294079</v>
+        <v>24.63768115942023</v>
       </c>
       <c r="L397" t="n">
         <v>9.797000000000001</v>
@@ -20526,7 +20548,7 @@
         <v>30.71000000000002</v>
       </c>
       <c r="K398" t="n">
-        <v>6.976744186046623</v>
+        <v>56.36363636363638</v>
       </c>
       <c r="L398" t="n">
         <v>9.812000000000001</v>
@@ -20577,7 +20599,7 @@
         <v>30.74000000000002</v>
       </c>
       <c r="K399" t="n">
-        <v>9.923664122137447</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L399" t="n">
         <v>9.846</v>
@@ -20628,7 +20650,7 @@
         <v>30.75000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>11.62790697674422</v>
+        <v>36.58536585365893</v>
       </c>
       <c r="L400" t="n">
         <v>9.869</v>
@@ -20679,7 +20701,7 @@
         <v>30.76000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>5.691056910569143</v>
+        <v>64.70588235294207</v>
       </c>
       <c r="L401" t="n">
         <v>9.882999999999999</v>
@@ -20730,7 +20752,7 @@
         <v>30.76000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>6.55737704918034</v>
+        <v>75.00000000000084</v>
       </c>
       <c r="L402" t="n">
         <v>9.904999999999999</v>
@@ -20781,7 +20803,7 @@
         <v>30.87000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-0.7633587786259407</v>
+        <v>18.91891891891913</v>
       </c>
       <c r="L403" t="n">
         <v>9.917999999999999</v>
@@ -20832,7 +20854,7 @@
         <v>31.00000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>-17.91044776119414</v>
+        <v>-14.28571428571449</v>
       </c>
       <c r="L404" t="n">
         <v>9.912000000000001</v>
@@ -20883,7 +20905,7 @@
         <v>31.13000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>-1.449275362318947</v>
+        <v>-3.703703703704008</v>
       </c>
       <c r="L405" t="n">
         <v>9.918000000000001</v>
@@ -20934,7 +20956,7 @@
         <v>31.13000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>9.677419354838715</v>
+        <v>-27.27272727272808</v>
       </c>
       <c r="L406" t="n">
         <v>9.916</v>
@@ -20985,7 +21007,7 @@
         <v>31.13000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>11.47540983606555</v>
+        <v>-23.80952380952466</v>
       </c>
       <c r="L407" t="n">
         <v>9.904</v>
@@ -21036,7 +21058,7 @@
         <v>31.14000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>3.508771929824518</v>
+        <v>-35.00000000000089</v>
       </c>
       <c r="L408" t="n">
         <v>9.893000000000001</v>
@@ -21087,7 +21109,7 @@
         <v>31.17000000000001</v>
       </c>
       <c r="K409" t="n">
-        <v>16.83168316831698</v>
+        <v>-38.09523809523862</v>
       </c>
       <c r="L409" t="n">
         <v>9.876000000000001</v>
@@ -21138,7 +21160,7 @@
         <v>31.22000000000001</v>
       </c>
       <c r="K410" t="n">
-        <v>2.08333333333331</v>
+        <v>-43.4782608695657</v>
       </c>
       <c r="L410" t="n">
         <v>9.855</v>
@@ -21189,7 +21211,7 @@
         <v>31.23000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>-5.617977528090009</v>
+        <v>-40.42553191489399</v>
       </c>
       <c r="L411" t="n">
         <v>9.836</v>
@@ -21240,7 +21262,7 @@
         <v>31.29000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>10.34482758620691</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L412" t="n">
         <v>9.823</v>
@@ -21291,7 +21313,7 @@
         <v>31.30000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>13.953488372093</v>
+        <v>39.99999999999964</v>
       </c>
       <c r="L413" t="n">
         <v>9.821999999999999</v>
@@ -21342,7 +21364,7 @@
         <v>31.38000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>-2.272727272727236</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L414" t="n">
         <v>9.825999999999999</v>
@@ -21393,7 +21415,7 @@
         <v>31.43000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>-8.695652173913135</v>
+        <v>-46.66666666666671</v>
       </c>
       <c r="L415" t="n">
         <v>9.811999999999999</v>
@@ -21444,7 +21466,7 @@
         <v>31.43000000000001</v>
       </c>
       <c r="K416" t="n">
-        <v>-19.04761904761931</v>
+        <v>-46.66666666666671</v>
       </c>
       <c r="L416" t="n">
         <v>9.797999999999998</v>
@@ -21495,7 +21517,7 @@
         <v>31.44</v>
       </c>
       <c r="K417" t="n">
-        <v>-33.33333333333396</v>
+        <v>-40.00000000000012</v>
       </c>
       <c r="L417" t="n">
         <v>9.785</v>
@@ -21546,7 +21568,7 @@
         <v>31.54000000000001</v>
       </c>
       <c r="K418" t="n">
-        <v>-39.75903614457891</v>
+        <v>-51.35135135135157</v>
       </c>
       <c r="L418" t="n">
         <v>9.763</v>
@@ -21597,7 +21619,7 @@
         <v>31.55</v>
       </c>
       <c r="K419" t="n">
-        <v>-43.20987654321047</v>
+        <v>-39.39393939393972</v>
       </c>
       <c r="L419" t="n">
         <v>9.744999999999999</v>
@@ -21648,7 +21670,7 @@
         <v>31.75</v>
       </c>
       <c r="K420" t="n">
-        <v>-14.00000000000021</v>
+        <v>11.5384615384618</v>
       </c>
       <c r="L420" t="n">
         <v>9.751999999999999</v>
@@ -21699,7 +21721,7 @@
         <v>31.8</v>
       </c>
       <c r="K421" t="n">
-        <v>-17.30769230769258</v>
+        <v>-9.803921568627764</v>
       </c>
       <c r="L421" t="n">
         <v>9.753</v>
@@ -21750,7 +21772,7 @@
         <v>31.92</v>
       </c>
       <c r="K422" t="n">
-        <v>-25.86206896551754</v>
+        <v>-29.03225806451654</v>
       </c>
       <c r="L422" t="n">
         <v>9.736000000000001</v>
@@ -21801,7 +21823,7 @@
         <v>31.95</v>
       </c>
       <c r="K423" t="n">
-        <v>-14.81481481481495</v>
+        <v>-12.28070175438616</v>
       </c>
       <c r="L423" t="n">
         <v>9.721</v>
@@ -21852,7 +21874,7 @@
         <v>31.98</v>
       </c>
       <c r="K424" t="n">
-        <v>-6.122448979591929</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L424" t="n">
         <v>9.711000000000002</v>
@@ -21903,7 +21925,7 @@
         <v>32.06</v>
       </c>
       <c r="K425" t="n">
-        <v>-11.82795698924734</v>
+        <v>4.761904761904695</v>
       </c>
       <c r="L425" t="n">
         <v>9.714000000000002</v>
@@ -21954,7 +21976,7 @@
         <v>32.21</v>
       </c>
       <c r="K426" t="n">
-        <v>3.703703703703819</v>
+        <v>22.07792207792218</v>
       </c>
       <c r="L426" t="n">
         <v>9.732000000000003</v>
@@ -22005,7 +22027,7 @@
         <v>32.28</v>
       </c>
       <c r="K427" t="n">
-        <v>-2.608695652173877</v>
+        <v>27.02702702702712</v>
       </c>
       <c r="L427" t="n">
         <v>9.742000000000001</v>
@@ -22056,7 +22078,7 @@
         <v>32.41</v>
       </c>
       <c r="K428" t="n">
-        <v>-11.81102362204731</v>
+        <v>6.976744186046367</v>
       </c>
       <c r="L428" t="n">
         <v>9.749000000000002</v>
@@ -22107,7 +22129,7 @@
         <v>32.51000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>-1.492537313432808</v>
+        <v>-5.263157894736719</v>
       </c>
       <c r="L429" t="n">
         <v>9.765000000000002</v>
@@ -22158,7 +22180,7 @@
         <v>32.63000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>-6.382978723404245</v>
+        <v>-13.25301204819262</v>
       </c>
       <c r="L430" t="n">
         <v>9.749000000000001</v>
@@ -22209,7 +22231,7 @@
         <v>32.65000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>-5.633802816901435</v>
+        <v>4.109589041095781</v>
       </c>
       <c r="L431" t="n">
         <v>9.74</v>
@@ -22260,7 +22282,7 @@
         <v>32.72000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>-4.89510489510494</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L432" t="n">
         <v>9.75</v>
@@ -22311,7 +22333,7 @@
         <v>32.79000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>-10.06711409395979</v>
+        <v>3.703703703703614</v>
       </c>
       <c r="L433" t="n">
         <v>9.75</v>
@@ -22362,7 +22384,7 @@
         <v>32.8</v>
       </c>
       <c r="K434" t="n">
-        <v>-5.633802816901435</v>
+        <v>-8.108108108108153</v>
       </c>
       <c r="L434" t="n">
         <v>9.751999999999999</v>
@@ -22413,7 +22435,7 @@
         <v>32.81</v>
       </c>
       <c r="K435" t="n">
-        <v>-1.449275362318943</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L435" t="n">
         <v>9.747</v>
@@ -22464,7 +22486,7 @@
         <v>32.83</v>
       </c>
       <c r="K436" t="n">
-        <v>-2.857142857142941</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L436" t="n">
         <v>9.725</v>
@@ -22515,7 +22537,7 @@
         <v>32.87</v>
       </c>
       <c r="K437" t="n">
-        <v>-0.6993006993006881</v>
+        <v>4.347826086956874</v>
       </c>
       <c r="L437" t="n">
         <v>9.714</v>
@@ -22566,7 +22588,7 @@
         <v>32.89</v>
       </c>
       <c r="K438" t="n">
-        <v>5.185185185185096</v>
+        <v>-26.3157894736849</v>
       </c>
       <c r="L438" t="n">
         <v>9.714</v>
@@ -22617,7 +22639,7 @@
         <v>32.92</v>
       </c>
       <c r="K439" t="n">
-        <v>2.189781021897768</v>
+        <v>-3.448275862068987</v>
       </c>
       <c r="L439" t="n">
         <v>9.701000000000001</v>
@@ -22668,7 +22690,7 @@
         <v>32.97</v>
       </c>
       <c r="K440" t="n">
-        <v>-9.836065573770465</v>
+        <v>6.250000000000555</v>
       </c>
       <c r="L440" t="n">
         <v>9.705000000000002</v>
@@ -22719,7 +22741,7 @@
         <v>32.99</v>
       </c>
       <c r="K441" t="n">
-        <v>-7.563025210084036</v>
+        <v>-25.92592592592641</v>
       </c>
       <c r="L441" t="n">
         <v>9.705000000000002</v>
@@ -22770,7 +22792,7 @@
         <v>32.99</v>
       </c>
       <c r="K442" t="n">
-        <v>2.803738317756949</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>9.698000000000002</v>
@@ -22821,7 +22843,7 @@
         <v>32.99</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>5.263157894736794</v>
       </c>
       <c r="L443" t="n">
         <v>9.698000000000002</v>
@@ -22872,7 +22894,7 @@
         <v>33</v>
       </c>
       <c r="K444" t="n">
-        <v>1.960784313725456</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L444" t="n">
         <v>9.698000000000002</v>
@@ -22923,7 +22945,7 @@
         <v>33.15</v>
       </c>
       <c r="K445" t="n">
-        <v>8.256880733944968</v>
+        <v>50</v>
       </c>
       <c r="L445" t="n">
         <v>9.712000000000002</v>
@@ -22974,7 +22996,7 @@
         <v>33.19</v>
       </c>
       <c r="K446" t="n">
-        <v>-2.040816326530575</v>
+        <v>50</v>
       </c>
       <c r="L446" t="n">
         <v>9.732000000000003</v>
@@ -23025,7 +23047,7 @@
         <v>33.2</v>
       </c>
       <c r="K447" t="n">
-        <v>4.347826086956421</v>
+        <v>54.83870967741893</v>
       </c>
       <c r="L447" t="n">
         <v>9.747000000000003</v>
@@ -23076,7 +23098,7 @@
         <v>33.3</v>
       </c>
       <c r="K448" t="n">
-        <v>7.86516853932587</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L448" t="n">
         <v>9.754000000000001</v>
@@ -23127,7 +23149,7 @@
         <v>33.33000000000001</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>22.22222222222184</v>
       </c>
       <c r="L449" t="n">
         <v>9.767000000000001</v>
@@ -23178,7 +23200,7 @@
         <v>33.39</v>
       </c>
       <c r="K450" t="n">
-        <v>23.68421052631604</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L450" t="n">
         <v>9.781000000000002</v>
@@ -23229,7 +23251,7 @@
         <v>33.41</v>
       </c>
       <c r="K451" t="n">
-        <v>18.42105263157924</v>
+        <v>33.3333333333339</v>
       </c>
       <c r="L451" t="n">
         <v>9.795000000000002</v>
@@ -23280,7 +23302,7 @@
         <v>33.59</v>
       </c>
       <c r="K452" t="n">
-        <v>-12.64367816091962</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L452" t="n">
         <v>9.791</v>
@@ -23331,7 +23353,7 @@
         <v>33.7</v>
       </c>
       <c r="K453" t="n">
-        <v>-16.48351648351652</v>
+        <v>-19.99999999999995</v>
       </c>
       <c r="L453" t="n">
         <v>9.776</v>
@@ -23382,7 +23404,7 @@
         <v>33.73999999999999</v>
       </c>
       <c r="K454" t="n">
-        <v>-19.14893617021293</v>
+        <v>-55.93220338983087</v>
       </c>
       <c r="L454" t="n">
         <v>9.758000000000001</v>
@@ -23433,7 +23455,7 @@
         <v>33.74999999999999</v>
       </c>
       <c r="K455" t="n">
-        <v>-21.27659574468099</v>
+        <v>-67.85714285714359</v>
       </c>
       <c r="L455" t="n">
         <v>9.724</v>
@@ -23484,7 +23506,7 @@
         <v>33.77999999999999</v>
       </c>
       <c r="K456" t="n">
-        <v>-22.10526315789474</v>
+        <v>-68.96551724138011</v>
       </c>
       <c r="L456" t="n">
         <v>9.683000000000002</v>
@@ -23535,7 +23557,7 @@
         <v>33.77999999999999</v>
       </c>
       <c r="K457" t="n">
-        <v>-27.47252747252757</v>
+        <v>-62.50000000000111</v>
       </c>
       <c r="L457" t="n">
         <v>9.643000000000001</v>
@@ -23586,7 +23608,7 @@
         <v>33.91999999999999</v>
       </c>
       <c r="K458" t="n">
-        <v>-8.73786407766994</v>
+        <v>-32.20338983050928</v>
       </c>
       <c r="L458" t="n">
         <v>9.627000000000001</v>
@@ -23637,7 +23659,7 @@
         <v>33.95999999999999</v>
       </c>
       <c r="K459" t="n">
-        <v>-9.615384615384654</v>
+        <v>-50.8771929824566</v>
       </c>
       <c r="L459" t="n">
         <v>9.604000000000001</v>
@@ -23688,7 +23710,7 @@
         <v>33.97999999999999</v>
       </c>
       <c r="K460" t="n">
-        <v>-16.83168316831698</v>
+        <v>-50.8771929824566</v>
       </c>
       <c r="L460" t="n">
         <v>9.573</v>
@@ -23739,7 +23761,7 @@
         <v>34.00999999999999</v>
       </c>
       <c r="K461" t="n">
-        <v>-11.76470588235299</v>
+        <v>-19.04761904761931</v>
       </c>
       <c r="L461" t="n">
         <v>9.547000000000001</v>
@@ -23790,7 +23812,7 @@
         <v>34.02999999999999</v>
       </c>
       <c r="K462" t="n">
-        <v>-9.61538461538472</v>
+        <v>15.15151515151523</v>
       </c>
       <c r="L462" t="n">
         <v>9.541</v>
@@ -23841,7 +23863,7 @@
         <v>34.07999999999998</v>
       </c>
       <c r="K463" t="n">
-        <v>-13.76146788990835</v>
+        <v>11.76470588235359</v>
       </c>
       <c r="L463" t="n">
         <v>9.541</v>
@@ -23892,7 +23914,7 @@
         <v>34.09999999999999</v>
       </c>
       <c r="K464" t="n">
-        <v>-14.54545454545473</v>
+        <v>8.571428571428529</v>
       </c>
       <c r="L464" t="n">
         <v>9.542999999999999</v>
@@ -23943,7 +23965,7 @@
         <v>34.18999999999998</v>
       </c>
       <c r="K465" t="n">
-        <v>-38.46153846153905</v>
+        <v>-7.317073170732172</v>
       </c>
       <c r="L465" t="n">
         <v>9.536999999999999</v>
@@ -23994,7 +24016,7 @@
         <v>34.18999999999998</v>
       </c>
       <c r="K466" t="n">
-        <v>-44.00000000000075</v>
+        <v>-7.317073170732172</v>
       </c>
       <c r="L466" t="n">
         <v>9.533999999999999</v>
@@ -24045,7 +24067,7 @@
         <v>34.21999999999998</v>
       </c>
       <c r="K467" t="n">
-        <v>-39.21568627451036</v>
+        <v>-46.66666666666781</v>
       </c>
       <c r="L467" t="n">
         <v>9.533999999999999</v>
@@ -24096,7 +24118,7 @@
         <v>34.28999999999998</v>
       </c>
       <c r="K468" t="n">
-        <v>-37.37373737373802</v>
+        <v>-51.51515151515287</v>
       </c>
       <c r="L468" t="n">
         <v>9.513</v>
@@ -24147,7 +24169,7 @@
         <v>34.32999999999998</v>
       </c>
       <c r="K469" t="n">
-        <v>-44.00000000000107</v>
+        <v>-54.28571428571554</v>
       </c>
       <c r="L469" t="n">
         <v>9.491999999999999</v>
@@ -24198,7 +24220,7 @@
         <v>34.32999999999998</v>
       </c>
       <c r="K470" t="n">
-        <v>-53.19148936170306</v>
+        <v>-68.75000000000166</v>
       </c>
       <c r="L470" t="n">
         <v>9.472999999999999</v>
@@ -24249,7 +24271,7 @@
         <v>34.40999999999998</v>
       </c>
       <c r="K471" t="n">
-        <v>-56.00000000000085</v>
+        <v>-84.21052631579056</v>
       </c>
       <c r="L471" t="n">
         <v>9.443</v>
@@ -24300,7 +24322,7 @@
         <v>34.41999999999998</v>
       </c>
       <c r="K472" t="n">
-        <v>-46.98795180722988</v>
+        <v>-82.35294117647182</v>
       </c>
       <c r="L472" t="n">
         <v>9.41</v>
@@ -24351,7 +24373,7 @@
         <v>34.50999999999998</v>
       </c>
       <c r="K473" t="n">
-        <v>-23.4567901234575</v>
+        <v>-41.46341463414739</v>
       </c>
       <c r="L473" t="n">
         <v>9.391</v>
@@ -24402,7 +24424,7 @@
         <v>34.51999999999997</v>
       </c>
       <c r="K474" t="n">
-        <v>-20.51282051282106</v>
+        <v>-27.27272727272796</v>
       </c>
       <c r="L474" t="n">
         <v>9.372999999999999</v>
@@ -24453,7 +24475,7 @@
         <v>34.51999999999997</v>
       </c>
       <c r="K475" t="n">
-        <v>-19.48051948051999</v>
+        <v>-27.27272727272796</v>
       </c>
       <c r="L475" t="n">
         <v>9.363999999999999</v>
@@ -24504,7 +24526,7 @@
         <v>34.51999999999997</v>
       </c>
       <c r="K476" t="n">
-        <v>-16.21621621621678</v>
+        <v>-40.00000000000166</v>
       </c>
       <c r="L476" t="n">
         <v>9.354999999999999</v>
@@ -24555,7 +24577,7 @@
         <v>34.58999999999997</v>
       </c>
       <c r="K477" t="n">
-        <v>-23.4567901234575</v>
+        <v>-40.00000000000166</v>
       </c>
       <c r="L477" t="n">
         <v>9.335999999999999</v>
@@ -24606,7 +24628,7 @@
         <v>34.65999999999998</v>
       </c>
       <c r="K478" t="n">
-        <v>-35.13513513513603</v>
+        <v>-3.030303030303047</v>
       </c>
       <c r="L478" t="n">
         <v>9.330999999999998</v>
@@ -24657,7 +24679,7 @@
         <v>34.66999999999997</v>
       </c>
       <c r="K479" t="n">
-        <v>-32.39436619718409</v>
+        <v>-5.882352941176532</v>
       </c>
       <c r="L479" t="n">
         <v>9.328999999999997</v>
@@ -24708,7 +24730,7 @@
         <v>34.73999999999997</v>
       </c>
       <c r="K480" t="n">
-        <v>-36.84210526315883</v>
+        <v>-3.030303030303047</v>
       </c>
       <c r="L480" t="n">
         <v>9.319999999999997</v>
@@ -24759,7 +24781,7 @@
         <v>34.79999999999998</v>
       </c>
       <c r="K481" t="n">
-        <v>-31.64556962025377</v>
+        <v>15.78947368421085</v>
       </c>
       <c r="L481" t="n">
         <v>9.324999999999998</v>
@@ -24810,7 +24832,7 @@
         <v>34.84999999999998</v>
       </c>
       <c r="K482" t="n">
-        <v>-39.02439024390279</v>
+        <v>-23.52941176470567</v>
       </c>
       <c r="L482" t="n">
         <v>9.325999999999997</v>
@@ -24861,7 +24883,7 @@
         <v>35.11999999999998</v>
       </c>
       <c r="K483" t="n">
-        <v>-51.9230769230774</v>
+        <v>-56.66666666666651</v>
       </c>
       <c r="L483" t="n">
         <v>9.290999999999999</v>
@@ -24912,7 +24934,7 @@
         <v>35.35999999999998</v>
       </c>
       <c r="K484" t="n">
-        <v>-22.22222222222233</v>
+        <v>-11.90476190476181</v>
       </c>
       <c r="L484" t="n">
         <v>9.280999999999999</v>
@@ -24963,7 +24985,7 @@
         <v>35.35999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>-16.23931623931627</v>
+        <v>-11.90476190476181</v>
       </c>
       <c r="L485" t="n">
         <v>9.270999999999999</v>
@@ -25014,7 +25036,7 @@
         <v>35.35999999999998</v>
       </c>
       <c r="K486" t="n">
-        <v>-16.23931623931627</v>
+        <v>-3.896103896103797</v>
       </c>
       <c r="L486" t="n">
         <v>9.260999999999999</v>
@@ -25065,7 +25087,7 @@
         <v>35.35999999999998</v>
       </c>
       <c r="K487" t="n">
-        <v>-19.29824561403525</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L487" t="n">
         <v>9.257999999999999</v>
@@ -25116,7 +25138,7 @@
         <v>35.39999999999998</v>
       </c>
       <c r="K488" t="n">
-        <v>-17.11711711711719</v>
+        <v>-17.80821917808196</v>
       </c>
       <c r="L488" t="n">
         <v>9.244</v>
@@ -25167,7 +25189,7 @@
         <v>35.43999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>-9.909909909909926</v>
+        <v>-2.857142857142784</v>
       </c>
       <c r="L489" t="n">
         <v>9.234999999999999</v>
@@ -25218,7 +25240,7 @@
         <v>35.44999999999997</v>
       </c>
       <c r="K490" t="n">
-        <v>-10.71428571428574</v>
+        <v>-13.84615384615386</v>
       </c>
       <c r="L490" t="n">
         <v>9.231999999999999</v>
@@ -25269,7 +25291,7 @@
         <v>35.44999999999997</v>
       </c>
       <c r="K491" t="n">
-        <v>-3.846153846153793</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L491" t="n">
         <v>9.222999999999999</v>
@@ -25320,7 +25342,7 @@
         <v>35.45999999999997</v>
       </c>
       <c r="K492" t="n">
-        <v>-1.923076923076897</v>
+        <v>70.58823529411848</v>
       </c>
       <c r="L492" t="n">
         <v>9.219999999999999</v>
@@ -25371,7 +25393,7 @@
         <v>35.50999999999998</v>
       </c>
       <c r="K493" t="n">
-        <v>-5.999999999999872</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L493" t="n">
         <v>9.248999999999999</v>
@@ -25422,7 +25444,7 @@
         <v>35.54999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>-0.9708737864077452</v>
+        <v>47.36842105263207</v>
       </c>
       <c r="L494" t="n">
         <v>9.257999999999999</v>
@@ -25473,7 +25495,7 @@
         <v>35.55999999999997</v>
       </c>
       <c r="K495" t="n">
-        <v>0</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L495" t="n">
         <v>9.267999999999997</v>
@@ -25524,7 +25546,7 @@
         <v>35.57999999999997</v>
       </c>
       <c r="K496" t="n">
-        <v>-1.886792452830157</v>
+        <v>36.36363636363776</v>
       </c>
       <c r="L496" t="n">
         <v>9.275999999999998</v>
@@ -25575,7 +25597,7 @@
         <v>35.59999999999997</v>
       </c>
       <c r="K497" t="n">
-        <v>6.930693069307021</v>
+        <v>70.00000000000337</v>
       </c>
       <c r="L497" t="n">
         <v>9.285999999999998</v>
@@ -25626,7 +25648,7 @@
         <v>35.65999999999997</v>
       </c>
       <c r="K498" t="n">
-        <v>-6.000000000000092</v>
+        <v>18.18181818181848</v>
       </c>
       <c r="L498" t="n">
         <v>9.293999999999997</v>
@@ -25677,7 +25699,7 @@
         <v>35.70999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>0</v>
+        <v>38.46153846153967</v>
       </c>
       <c r="L499" t="n">
         <v>9.302999999999997</v>
@@ -25728,7 +25750,7 @@
         <v>35.82999999999996</v>
       </c>
       <c r="K500" t="n">
-        <v>-4.5871559633027</v>
+        <v>-5.263157894736891</v>
       </c>
       <c r="L500" t="n">
         <v>9.300999999999998</v>
@@ -25779,7 +25801,7 @@
         <v>35.82999999999996</v>
       </c>
       <c r="K501" t="n">
-        <v>-10.67961165048552</v>
+        <v>-8.108108108108148</v>
       </c>
       <c r="L501" t="n">
         <v>9.298999999999998</v>
@@ -25830,7 +25852,7 @@
         <v>35.84999999999997</v>
       </c>
       <c r="K502" t="n">
-        <v>-3.999999999999972</v>
+        <v>-17.64705882353012</v>
       </c>
       <c r="L502" t="n">
         <v>9.297999999999998</v>
@@ -25881,7 +25903,7 @@
         <v>35.86999999999996</v>
       </c>
       <c r="K503" t="n">
-        <v>28.00000000000065</v>
+        <v>-37.50000000000139</v>
       </c>
       <c r="L503" t="n">
         <v>9.289999999999997</v>
@@ -25932,7 +25954,7 @@
         <v>35.88999999999996</v>
       </c>
       <c r="K504" t="n">
-        <v>-1.88679245283022</v>
+        <v>-33.33333333333477</v>
       </c>
       <c r="L504" t="n">
         <v>9.279999999999998</v>
@@ -25983,7 +26005,7 @@
         <v>35.97999999999996</v>
       </c>
       <c r="K505" t="n">
-        <v>-16.1290322580649</v>
+        <v>-45.00000000000089</v>
       </c>
       <c r="L505" t="n">
         <v>9.259999999999998</v>
@@ -26034,7 +26056,7 @@
         <v>35.98999999999996</v>
       </c>
       <c r="K506" t="n">
-        <v>-17.46031746031789</v>
+        <v>-53.84615384615451</v>
       </c>
       <c r="L506" t="n">
         <v>9.240999999999998</v>
@@ -26085,7 +26107,7 @@
         <v>36.07999999999996</v>
       </c>
       <c r="K507" t="n">
-        <v>-27.77777777777855</v>
+        <v>-57.14285714285847</v>
       </c>
       <c r="L507" t="n">
         <v>9.210999999999999</v>
@@ -26136,7 +26158,7 @@
         <v>36.12999999999995</v>
       </c>
       <c r="K508" t="n">
-        <v>-15.0684931506856</v>
+        <v>-57.14285714285889</v>
       </c>
       <c r="L508" t="n">
         <v>9.191999999999998</v>
@@ -26187,7 +26209,7 @@
         <v>36.21999999999996</v>
       </c>
       <c r="K509" t="n">
-        <v>-30.76923076923159</v>
+        <v>-53.84615384615496</v>
       </c>
       <c r="L509" t="n">
         <v>9.158999999999999</v>
@@ -26238,7 +26260,7 @@
         <v>36.25999999999996</v>
       </c>
       <c r="K510" t="n">
-        <v>-23.45679012345728</v>
+        <v>-39.5348837209309</v>
       </c>
       <c r="L510" t="n">
         <v>9.141999999999999</v>
@@ -26289,7 +26311,7 @@
         <v>36.27999999999996</v>
       </c>
       <c r="K511" t="n">
-        <v>-20.48192771084376</v>
+        <v>-39.5348837209309</v>
       </c>
       <c r="L511" t="n">
         <v>9.126999999999999</v>
@@ -26340,7 +26362,7 @@
         <v>36.41999999999996</v>
       </c>
       <c r="K512" t="n">
-        <v>-33.33333333333383</v>
+        <v>-52.72727272727317</v>
       </c>
       <c r="L512" t="n">
         <v>9.096</v>
@@ -26391,7 +26413,7 @@
         <v>36.43999999999996</v>
       </c>
       <c r="K513" t="n">
-        <v>-37.63440860215157</v>
+        <v>-52.72727272727317</v>
       </c>
       <c r="L513" t="n">
         <v>9.068999999999999</v>
@@ -26442,7 +26464,7 @@
         <v>36.56999999999995</v>
       </c>
       <c r="K514" t="n">
-        <v>-50.98039215686396</v>
+        <v>-55.93220338983155</v>
       </c>
       <c r="L514" t="n">
         <v>9.026999999999999</v>
@@ -26493,7 +26515,7 @@
         <v>36.67999999999995</v>
       </c>
       <c r="K515" t="n">
-        <v>-37.5000000000008</v>
+        <v>-30.43478260869619</v>
       </c>
       <c r="L515" t="n">
         <v>9.004999999999999</v>
@@ -26544,7 +26566,7 @@
         <v>36.84999999999995</v>
       </c>
       <c r="K516" t="n">
-        <v>-44.88188976378019</v>
+        <v>-37.66233766233798</v>
       </c>
       <c r="L516" t="n">
         <v>8.966999999999999</v>
@@ -26595,7 +26617,7 @@
         <v>36.86999999999995</v>
       </c>
       <c r="K517" t="n">
-        <v>-48.03149606299277</v>
+        <v>-48.64864864864891</v>
       </c>
       <c r="L517" t="n">
         <v>8.935999999999998</v>
@@ -26646,7 +26668,7 @@
         <v>37.06999999999995</v>
       </c>
       <c r="K518" t="n">
-        <v>-24.82269503546128</v>
+        <v>-8.235294117647147</v>
       </c>
       <c r="L518" t="n">
         <v>8.919999999999998</v>
@@ -26697,7 +26719,7 @@
         <v>37.07999999999995</v>
       </c>
       <c r="K519" t="n">
-        <v>-28.46715328467193</v>
+        <v>-12.19512195121979</v>
       </c>
       <c r="L519" t="n">
         <v>8.913999999999998</v>
@@ -26748,7 +26770,7 @@
         <v>37.24999999999995</v>
       </c>
       <c r="K520" t="n">
-        <v>-7.042253521126923</v>
+        <v>5.154639175257666</v>
       </c>
       <c r="L520" t="n">
         <v>8.920999999999999</v>
@@ -26799,7 +26821,7 @@
         <v>37.39999999999995</v>
       </c>
       <c r="K521" t="n">
-        <v>-15.92356687898103</v>
+        <v>4.081632653061361</v>
       </c>
       <c r="L521" t="n">
         <v>8.910999999999998</v>
@@ -26850,7 +26872,7 @@
         <v>37.45999999999995</v>
       </c>
       <c r="K522" t="n">
-        <v>-13.04347826086974</v>
+        <v>7.843137254901998</v>
       </c>
       <c r="L522" t="n">
         <v>8.920999999999998</v>
@@ -26901,7 +26923,7 @@
         <v>37.46999999999995</v>
       </c>
       <c r="K523" t="n">
-        <v>-12.50000000000017</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L523" t="n">
         <v>8.927999999999997</v>
@@ -26952,7 +26974,7 @@
         <v>37.68999999999995</v>
       </c>
       <c r="K524" t="n">
-        <v>-24.44444444444455</v>
+        <v>-12.8712871287128</v>
       </c>
       <c r="L524" t="n">
         <v>8.925999999999997</v>
@@ -27003,7 +27025,7 @@
         <v>37.81999999999995</v>
       </c>
       <c r="K525" t="n">
-        <v>-11.95652173913054</v>
+        <v>17.5257731958763</v>
       </c>
       <c r="L525" t="n">
         <v>8.925999999999997</v>
@@ -27054,7 +27076,7 @@
         <v>37.83999999999995</v>
       </c>
       <c r="K526" t="n">
-        <v>-12.43243243243254</v>
+        <v>17.5257731958763</v>
       </c>
       <c r="L526" t="n">
         <v>8.940999999999995</v>
@@ -27105,7 +27127,7 @@
         <v>37.87999999999995</v>
       </c>
       <c r="K527" t="n">
-        <v>-10.00000000000014</v>
+        <v>-8.641975308642062</v>
       </c>
       <c r="L527" t="n">
         <v>8.953999999999997</v>
@@ -27156,7 +27178,7 @@
         <v>37.92999999999995</v>
       </c>
       <c r="K528" t="n">
-        <v>-10</v>
+        <v>-3.529411764705801</v>
       </c>
       <c r="L528" t="n">
         <v>8.951999999999996</v>
@@ -27207,7 +27229,7 @@
         <v>37.95999999999995</v>
       </c>
       <c r="K529" t="n">
-        <v>-3.448275862069004</v>
+        <v>-23.94366197183095</v>
       </c>
       <c r="L529" t="n">
         <v>8.951999999999996</v>
@@ -27258,7 +27280,7 @@
         <v>38.10999999999995</v>
       </c>
       <c r="K530" t="n">
-        <v>-13.51351351351356</v>
+        <v>-23.94366197183095</v>
       </c>
       <c r="L530" t="n">
         <v>8.919999999999996</v>
@@ -27309,7 +27331,7 @@
         <v>38.22999999999995</v>
       </c>
       <c r="K531" t="n">
-        <v>-7.692307692307756</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L531" t="n">
         <v>8.914999999999996</v>
@@ -27360,7 +27382,7 @@
         <v>38.23999999999995</v>
       </c>
       <c r="K532" t="n">
-        <v>0</v>
+        <v>-11.68831168831173</v>
       </c>
       <c r="L532" t="n">
         <v>8.904999999999996</v>
@@ -27411,7 +27433,7 @@
         <v>38.23999999999995</v>
       </c>
       <c r="K533" t="n">
-        <v>-1.111111111111094</v>
+        <v>23.63636363636358</v>
       </c>
       <c r="L533" t="n">
         <v>8.895999999999997</v>
@@ -27462,7 +27484,7 @@
         <v>38.24999999999994</v>
       </c>
       <c r="K534" t="n">
-        <v>7.142857142857127</v>
+        <v>2.325581395348828</v>
       </c>
       <c r="L534" t="n">
         <v>8.909999999999997</v>
@@ -27513,7 +27535,7 @@
         <v>38.33999999999995</v>
       </c>
       <c r="K535" t="n">
-        <v>6.024096385542159</v>
+        <v>23.99999999999984</v>
       </c>
       <c r="L535" t="n">
         <v>8.919999999999996</v>
@@ -27564,7 +27586,7 @@
         <v>38.33999999999995</v>
       </c>
       <c r="K536" t="n">
-        <v>18.12080536912755</v>
+        <v>34.78260869565214</v>
       </c>
       <c r="L536" t="n">
         <v>8.931999999999997</v>
@@ -27615,7 +27637,7 @@
         <v>38.40999999999995</v>
       </c>
       <c r="K537" t="n">
-        <v>14.28571428571433</v>
+        <v>8.333333333333579</v>
       </c>
       <c r="L537" t="n">
         <v>8.940999999999997</v>
@@ -27666,7 +27688,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K538" t="n">
-        <v>7.692307692307816</v>
+        <v>18.51851851851906</v>
       </c>
       <c r="L538" t="n">
         <v>8.953999999999997</v>
@@ -27717,7 +27739,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K539" t="n">
-        <v>7.042253521126887</v>
+        <v>64.10256410256517</v>
       </c>
       <c r="L539" t="n">
         <v>8.963999999999995</v>
@@ -27768,7 +27790,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K540" t="n">
-        <v>-5.599999999999913</v>
+        <v>48.14814814814915</v>
       </c>
       <c r="L540" t="n">
         <v>8.988999999999995</v>
@@ -27819,7 +27841,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K541" t="n">
-        <v>7.272727272727317</v>
+        <v>46.15384615384689</v>
       </c>
       <c r="L541" t="n">
         <v>9.001999999999995</v>
@@ -27870,7 +27892,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K542" t="n">
-        <v>1.923076923077067</v>
+        <v>46.15384615384689</v>
       </c>
       <c r="L542" t="n">
         <v>9.013999999999996</v>
@@ -27921,7 +27943,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K543" t="n">
-        <v>2.912621359223428</v>
+        <v>44.00000000000048</v>
       </c>
       <c r="L543" t="n">
         <v>9.025999999999996</v>
@@ -27972,7 +27994,7 @@
         <v>38.49999999999994</v>
       </c>
       <c r="K544" t="n">
-        <v>30.86419753086438</v>
+        <v>12.50000000000111</v>
       </c>
       <c r="L544" t="n">
         <v>9.036999999999995</v>
@@ -28023,7 +28045,7 @@
         <v>38.51999999999995</v>
       </c>
       <c r="K545" t="n">
-        <v>14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L545" t="n">
         <v>9.036999999999995</v>
@@ -28074,7 +28096,7 @@
         <v>38.53999999999995</v>
       </c>
       <c r="K546" t="n">
-        <v>20</v>
+        <v>69.23076923076776</v>
       </c>
       <c r="L546" t="n">
         <v>9.038999999999996</v>
@@ -28125,7 +28147,7 @@
         <v>38.54999999999995</v>
       </c>
       <c r="K547" t="n">
-        <v>28.358208955224</v>
+        <v>19.99999999999787</v>
       </c>
       <c r="L547" t="n">
         <v>9.048999999999996</v>
@@ -28176,7 +28198,7 @@
         <v>38.55999999999995</v>
       </c>
       <c r="K548" t="n">
-        <v>23.80952380952404</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L548" t="n">
         <v>9.050999999999995</v>
@@ -28227,7 +28249,7 @@
         <v>38.55999999999995</v>
       </c>
       <c r="K549" t="n">
-        <v>20.00000000000036</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L549" t="n">
         <v>9.052999999999995</v>
@@ -28278,7 +28300,7 @@
         <v>38.58999999999995</v>
       </c>
       <c r="K550" t="n">
-        <v>62.50000000000019</v>
+        <v>55.55555555555226</v>
       </c>
       <c r="L550" t="n">
         <v>9.057999999999996</v>
@@ -28329,7 +28351,7 @@
         <v>38.61999999999995</v>
       </c>
       <c r="K551" t="n">
-        <v>53.84615384615399</v>
+        <v>66.6666666666642</v>
       </c>
       <c r="L551" t="n">
         <v>9.065999999999995</v>
@@ -28380,7 +28402,7 @@
         <v>38.62999999999995</v>
       </c>
       <c r="K552" t="n">
-        <v>53.84615384615399</v>
+        <v>69.23076923076776</v>
       </c>
       <c r="L552" t="n">
         <v>9.074999999999996</v>
@@ -28431,7 +28453,7 @@
         <v>38.62999999999995</v>
       </c>
       <c r="K553" t="n">
-        <v>53.84615384615399</v>
+        <v>69.23076923076776</v>
       </c>
       <c r="L553" t="n">
         <v>9.083999999999996</v>
@@ -28482,7 +28504,7 @@
         <v>38.72999999999995</v>
       </c>
       <c r="K554" t="n">
-        <v>20.83333333333309</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L554" t="n">
         <v>9.082999999999997</v>
@@ -28533,7 +28555,7 @@
         <v>38.80999999999995</v>
       </c>
       <c r="K555" t="n">
-        <v>19.14893617021278</v>
+        <v>25.92592592592576</v>
       </c>
       <c r="L555" t="n">
         <v>9.091999999999997</v>
@@ -28584,7 +28606,7 @@
         <v>38.80999999999995</v>
       </c>
       <c r="K556" t="n">
-        <v>19.14893617021278</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L556" t="n">
         <v>9.098999999999998</v>
@@ -28635,7 +28657,7 @@
         <v>38.80999999999995</v>
       </c>
       <c r="K557" t="n">
-        <v>39.99999999999974</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L557" t="n">
         <v>9.104999999999999</v>
@@ -28686,7 +28708,7 @@
         <v>38.80999999999995</v>
       </c>
       <c r="K558" t="n">
-        <v>22.58064516128967</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L558" t="n">
         <v>9.109999999999999</v>
@@ -28737,7 +28759,7 @@
         <v>38.81999999999995</v>
       </c>
       <c r="K559" t="n">
-        <v>24.99999999999945</v>
+        <v>13.04347826086983</v>
       </c>
       <c r="L559" t="n">
         <v>9.116</v>

--- a/BackTest/2019-10-25 BackTest DVP.xlsx
+++ b/BackTest/2019-10-25 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.85</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-4213441.074651593</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.85</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-4213529.963451593</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.95</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +605,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +642,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +679,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +716,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +753,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +790,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +823,17 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.86</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,15 +862,17 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>7.92</v>
       </c>
-      <c r="J13" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,17 +901,15 @@
         <v>-4227844.599551593</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>7.92</v>
       </c>
-      <c r="J14" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -892,17 +940,15 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>7.89</v>
       </c>
-      <c r="J15" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -933,14 +979,12 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>7.92</v>
       </c>
-      <c r="J16" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -974,12 +1018,12 @@
         <v>-4228903.781351593</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>7.92</v>
       </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1016,9 +1060,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1055,9 +1097,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1091,12 +1131,12 @@
         <v>-4233415.379051594</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>7.92</v>
       </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1130,14 +1170,12 @@
         <v>-4236695.072551594</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>7.91</v>
       </c>
-      <c r="J21" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1171,14 +1209,12 @@
         <v>-4234640.932451594</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>7.85</v>
       </c>
-      <c r="J22" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,14 +1248,12 @@
         <v>-4234658.932451594</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>7.92</v>
       </c>
-      <c r="J23" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1253,12 +1287,12 @@
         <v>-4234718.932451594</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1292,14 +1326,12 @@
         <v>-4242631.587751593</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>7.83</v>
       </c>
-      <c r="J25" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1333,12 +1365,12 @@
         <v>-4241011.587751593</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1372,14 +1404,12 @@
         <v>-4241031.587751593</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>7.89</v>
       </c>
-      <c r="J27" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1413,12 +1443,12 @@
         <v>-4926447.317651593</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1452,14 +1482,12 @@
         <v>-4926403.317651593</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>7.73</v>
       </c>
-      <c r="J29" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1493,14 +1521,12 @@
         <v>-4926403.317651593</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>7.89</v>
       </c>
-      <c r="J30" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1534,14 +1560,12 @@
         <v>-4684693.228251593</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>7.89</v>
       </c>
-      <c r="J31" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1575,14 +1599,12 @@
         <v>-4684737.228251593</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>8.06</v>
       </c>
-      <c r="J32" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1616,14 +1638,12 @@
         <v>-4685006.228251593</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J33" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1657,14 +1677,12 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="J34" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1698,14 +1716,12 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J35" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1739,12 +1755,12 @@
         <v>-4687278.450451593</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1778,12 +1794,12 @@
         <v>-4688564.450451593</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1817,12 +1833,12 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,12 +1872,12 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1895,12 +1911,12 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1934,12 +1950,12 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1973,12 +1989,12 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,12 +2028,12 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,12 +2067,12 @@
         <v>-4692161.430851594</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2090,12 +2106,12 @@
         <v>-4551848.714051594</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2129,12 +2145,12 @@
         <v>-4547237.354251594</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,12 +2184,12 @@
         <v>-4547265.354251594</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2207,12 +2223,12 @@
         <v>-4540199.354251594</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,12 +2262,12 @@
         <v>-4543199.354251594</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2285,12 +2301,12 @@
         <v>-4543159.873451594</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2324,12 +2340,12 @@
         <v>-4786071.298551594</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,12 +2379,12 @@
         <v>-4804701.298551594</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,12 +2418,12 @@
         <v>-4875021.965151594</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2441,12 +2457,12 @@
         <v>-4877165.166151594</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,12 +2496,12 @@
         <v>-4877143.166151594</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,12 +2535,12 @@
         <v>-4875721.166151594</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2558,12 +2574,12 @@
         <v>-4824000.920251594</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2597,12 +2613,12 @@
         <v>-4824000.920251594</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2636,12 +2652,12 @@
         <v>-4824611.920251594</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,12 +2691,12 @@
         <v>-4824611.920251594</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2714,12 +2730,12 @@
         <v>-4867765.567451593</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2753,12 +2769,12 @@
         <v>-4867755.567451593</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,12 +2808,12 @@
         <v>-4867765.567451593</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,12 +2847,12 @@
         <v>-4912218.204851594</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,14 +2886,12 @@
         <v>-4912118.204851594</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>7.95</v>
       </c>
-      <c r="J65" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,12 +2925,12 @@
         <v>-4912118.204851594</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,12 +2964,12 @@
         <v>-4974955.046351594</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,12 +3003,12 @@
         <v>-4971457.046351594</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,12 +3042,12 @@
         <v>-4971467.046351594</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,12 +3081,12 @@
         <v>-4971457.046351594</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,12 +3120,12 @@
         <v>-4971457.046351594</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3145,12 +3159,12 @@
         <v>-4965438.046351594</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,14 +3198,12 @@
         <v>-5171702.896551594</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>7.95</v>
       </c>
-      <c r="J73" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3225,12 +3237,12 @@
         <v>-5171702.896551594</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
         <v>7.92</v>
       </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3264,12 +3276,12 @@
         <v>-5171702.896551594</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
         <v>7.92</v>
       </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3303,12 +3315,12 @@
         <v>-5284318.685351594</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>7.92</v>
       </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,12 +3354,12 @@
         <v>-5089291.205751594</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3381,12 +3393,12 @@
         <v>-5089281.205751594</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3420,12 +3432,12 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,12 +3471,12 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
         <v>7.92</v>
       </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,12 +3510,12 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>7.92</v>
       </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,12 +3549,12 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>7.92</v>
       </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,12 +3588,12 @@
         <v>-4833834.379151594</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
         <v>7.92</v>
       </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3615,12 +3627,12 @@
         <v>-5020338.700851594</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,12 +3666,12 @@
         <v>-3976898.392651594</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>7.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,9 +3708,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,9 +3745,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3774,9 +3782,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3813,9 +3819,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,9 +3856,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3891,9 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,9 +3930,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3969,9 +3967,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,9 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4047,9 +4041,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4086,9 +4078,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,9 +4115,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4164,9 +4152,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4203,9 +4189,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4242,9 +4226,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4281,9 +4263,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,9 +4300,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4359,9 +4337,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4398,9 +4374,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,9 +4411,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4476,9 +4448,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,9 +4485,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,9 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4593,9 +4559,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,9 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4671,9 +4633,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,12 +4667,10 @@
         <v>-3276570.594657753</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,9 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,9 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,9 +4781,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,9 +4818,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,9 +4855,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,9 +4892,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,9 +4929,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,9 +4966,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,9 +5003,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5100,9 +5040,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,9 +5077,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,9 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5217,9 +5151,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5256,9 +5188,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5295,9 +5225,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,9 +5262,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,9 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,9 +5336,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,9 +5373,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5490,9 +5410,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,9 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5565,12 +5481,10 @@
         <v>-4679785.317757754</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5607,9 +5521,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,9 +5558,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5685,9 +5595,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5721,12 +5629,10 @@
         <v>-4686099.955657754</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,9 +5669,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,9 +5706,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5841,9 +5743,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,9 +5780,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5919,9 +5817,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,9 +5854,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,9 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,9 +5928,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,9 +5965,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,9 +6002,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,9 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,9 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,9 +6113,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,9 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,9 +6187,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,9 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6387,9 +6261,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,9 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,9 +6372,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6543,9 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,9 +6446,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,9 +6483,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,9 +6520,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,9 +6557,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,9 +6594,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,9 +6631,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6816,9 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6855,9 +6705,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6894,9 +6742,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,9 +6779,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,9 +6816,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,9 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,9 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7089,9 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7128,9 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,9 +7001,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,9 +7038,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,9 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,9 +7112,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,9 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7362,9 +7186,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,9 +7223,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7440,9 +7260,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7479,9 +7297,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7518,9 +7334,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,9 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,9 +7408,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7635,9 +7445,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,9 +7482,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7713,9 +7519,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7752,9 +7556,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,9 +7593,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,9 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,9 +7667,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,9 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,9 +7741,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7986,9 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8025,9 +7815,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,9 +7852,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,9 +7889,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,9 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,9 +7963,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,9 +8000,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,9 +8037,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,9 +8074,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,9 +8111,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,9 +8148,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +8185,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +8222,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +8259,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,9 +8296,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +8333,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,9 +8370,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,9 +8444,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,9 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +8518,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,9 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,9 +8592,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,9 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +8666,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,9 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +8740,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,9 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,9 +8814,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +8851,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,9 +8888,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9195,9 +8925,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,9 +8962,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,9 +8999,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9312,9 +9036,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9351,9 +9073,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +9110,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9429,9 +9147,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,9 +9184,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,9 +9221,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,9 +9258,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,9 +9295,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,9 +9332,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,9 +9369,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9702,9 +9406,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9741,9 +9443,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9780,9 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,9 +9517,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9858,9 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9897,9 +9591,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9936,9 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,9 +9665,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10014,9 +9702,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10053,9 +9739,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10092,9 +9776,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10131,9 +9813,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10170,9 +9850,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10209,9 +9887,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10248,9 +9924,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10287,9 +9961,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10326,9 +9998,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,9 +10035,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10404,9 +10072,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10443,9 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10482,9 +10146,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10521,9 +10183,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10560,9 +10220,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,9 +10257,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10638,9 +10294,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10677,9 +10331,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,9 +10368,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10755,9 +10405,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10794,9 +10442,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10833,9 +10479,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10872,9 +10516,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10911,9 +10553,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10950,9 +10590,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10989,9 +10627,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11028,9 +10664,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11067,9 +10701,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11106,9 +10738,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11145,9 +10775,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11184,9 +10812,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11223,9 +10849,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11262,9 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11301,9 +10923,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11340,9 +10960,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11379,9 +10997,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11418,9 +11034,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11457,9 +11071,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11496,9 +11108,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11535,9 +11145,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11574,9 +11182,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11613,9 +11219,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,9 +11256,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11691,9 +11293,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11730,9 +11330,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11769,9 +11367,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11808,9 +11404,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11847,9 +11441,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11886,9 +11478,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11925,9 +11515,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11964,9 +11552,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12003,9 +11589,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12042,9 +11626,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12081,9 +11663,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12120,9 +11700,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12159,9 +11737,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12195,23 +11771,19 @@
         <v>-3872431.943605371</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>7.92</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1.106111111111111</v>
-      </c>
-      <c r="M304" t="n">
-        <v>1.021794871794872</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12236,11 +11808,15 @@
         <v>-3395991.863005371</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +11845,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12302,11 +11882,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12335,11 +11919,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12368,11 +11956,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +11993,15 @@
         <v>-3405132.443605371</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +12030,15 @@
         <v>-3419233.516105371</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +12067,15 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +12104,15 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +12141,15 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12566,11 +12178,15 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12599,11 +12215,15 @@
         <v>-2297247.111905371</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12632,11 +12252,15 @@
         <v>-2312225.682405371</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12665,11 +12289,15 @@
         <v>-2312215.682405371</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12698,11 +12326,15 @@
         <v>-1323836.754305371</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12731,11 +12363,15 @@
         <v>-394429.5754053706</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12764,11 +12400,15 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12797,11 +12437,15 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12830,11 +12474,15 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12863,11 +12511,15 @@
         <v>-148497.4589053706</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12896,11 +12548,15 @@
         <v>-692567.2040053705</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12929,11 +12585,15 @@
         <v>-1148240.70490537</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12962,11 +12622,15 @@
         <v>-685882.8487053704</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12995,11 +12659,15 @@
         <v>-731145.1977053705</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13028,11 +12696,15 @@
         <v>-792832.1147053705</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13061,11 +12733,15 @@
         <v>-644566.3803053705</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13094,11 +12770,15 @@
         <v>1142739.897794629</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13127,11 +12807,15 @@
         <v>1036808.011894629</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13160,11 +12844,15 @@
         <v>1726264.75159463</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +12881,15 @@
         <v>2893034.38559463</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13226,11 +12918,15 @@
         <v>2561374.18279463</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13259,11 +12955,15 @@
         <v>2561251.54219463</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +12992,15 @@
         <v>1220042.32189463</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +13029,15 @@
         <v>1584267.06309463</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13358,11 +13066,15 @@
         <v>1849044.53989463</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13391,11 +13103,15 @@
         <v>2509455.45069463</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13424,11 +13140,15 @@
         <v>2406549.35949463</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13457,11 +13177,15 @@
         <v>1090303.60429463</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13490,11 +13214,15 @@
         <v>1595163.84049463</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13523,11 +13251,15 @@
         <v>2361802.069119896</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13556,11 +13288,15 @@
         <v>1900697.705944187</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13589,11 +13325,15 @@
         <v>1005091.613144187</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13622,11 +13362,15 @@
         <v>1058438.067044187</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13655,11 +13399,15 @@
         <v>1058438.067044187</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13692,7 +13440,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +13473,15 @@
         <v>81946.14736345736</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13758,7 +13514,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13791,7 +13551,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13820,11 +13584,15 @@
         <v>335249.8855634575</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13857,7 +13625,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13886,11 +13658,15 @@
         <v>825014.7144634575</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13919,11 +13695,15 @@
         <v>726100.1503634575</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13952,11 +13732,15 @@
         <v>1095042.785463457</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13989,7 +13773,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14018,11 +13806,15 @@
         <v>659695.1356634574</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14055,7 +13847,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14088,7 +13884,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14121,7 +13921,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14154,7 +13958,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14187,7 +13995,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14220,7 +14032,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14253,7 +14069,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14286,7 +14106,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14319,7 +14143,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14352,7 +14180,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14381,14 +14213,16 @@
         <v>-136561.8511365426</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
@@ -14414,7 +14248,7 @@
         <v>-28874.30863654263</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14447,7 +14281,7 @@
         <v>142519.0570634574</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14480,7 +14314,7 @@
         <v>145049.0570634574</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14513,7 +14347,7 @@
         <v>-48298.97153654261</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14546,7 +14380,7 @@
         <v>-31016.11263654261</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14579,7 +14413,7 @@
         <v>-167055.3299365426</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14612,7 +14446,7 @@
         <v>-217065.3299365426</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14678,7 +14512,7 @@
         <v>827264.2754743854</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14711,7 +14545,7 @@
         <v>827264.2754743854</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14744,7 +14578,7 @@
         <v>839264.2754743854</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14909,7 +14743,7 @@
         <v>707004.3505743854</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15041,7 +14875,7 @@
         <v>815667.0888743855</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15074,7 +14908,7 @@
         <v>1109009.758974385</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15107,7 +14941,7 @@
         <v>1108877.627774386</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15437,7 +15271,7 @@
         <v>4356406.484463457</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15470,7 +15304,7 @@
         <v>5804687.204263457</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15503,7 +15337,7 @@
         <v>5224130.571047771</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15536,7 +15370,7 @@
         <v>6120814.524947771</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15569,7 +15403,7 @@
         <v>5001621.055047771</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15602,7 +15436,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15635,7 +15469,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15668,7 +15502,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15701,7 +15535,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15734,7 +15568,7 @@
         <v>3973652.723047771</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15767,7 +15601,7 @@
         <v>3665523.545747771</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15800,7 +15634,7 @@
         <v>3665523.545747771</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15833,7 +15667,7 @@
         <v>3923500.229547771</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15866,7 +15700,7 @@
         <v>3397255.359547771</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15899,7 +15733,7 @@
         <v>3640778.623147771</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15932,7 +15766,7 @@
         <v>3258058.129547771</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15965,7 +15799,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15998,7 +15832,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16031,7 +15865,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16064,7 +15898,7 @@
         <v>4129966.246871236</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16097,7 +15931,7 @@
         <v>6411849.169000648</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16130,7 +15964,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16163,7 +15997,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16196,7 +16030,7 @@
         <v>1907770.349100648</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16229,7 +16063,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16262,7 +16096,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16295,7 +16129,7 @@
         <v>2339725.528200647</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16328,7 +16162,7 @@
         <v>2343078.162500647</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16361,7 +16195,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16394,7 +16228,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16493,7 +16327,7 @@
         <v>2017042.837564502</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16526,7 +16360,7 @@
         <v>1618689.057264502</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16559,7 +16393,7 @@
         <v>1618689.057264502</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16592,7 +16426,7 @@
         <v>1483414.592964503</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16625,7 +16459,7 @@
         <v>1359779.788264503</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16658,7 +16492,7 @@
         <v>1304985.018064503</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16691,7 +16525,7 @@
         <v>1417760.992064503</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16724,7 +16558,7 @@
         <v>1407760.992064503</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16757,7 +16591,7 @@
         <v>1299578.543664502</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16790,7 +16624,7 @@
         <v>1522294.872164503</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16823,7 +16657,7 @@
         <v>1469865.971664503</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16889,7 +16723,7 @@
         <v>1256269.115964503</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16922,7 +16756,7 @@
         <v>1305954.393164502</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16988,7 +16822,7 @@
         <v>565393.5335645025</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17021,7 +16855,7 @@
         <v>622359.4218645025</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17054,7 +16888,7 @@
         <v>569898.3314645025</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17087,7 +16921,7 @@
         <v>43582.60026450246</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17120,7 +16954,7 @@
         <v>312155.9029645025</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17153,7 +16987,7 @@
         <v>478041.9032645025</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17186,7 +17020,7 @@
         <v>493834.0540645025</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17219,7 +17053,7 @@
         <v>914379.6826645024</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17252,7 +17086,7 @@
         <v>845729.4171645024</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17285,7 +17119,7 @@
         <v>1011913.782364502</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17318,7 +17152,7 @@
         <v>821470.6981645024</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17351,7 +17185,7 @@
         <v>518494.8911645024</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17384,7 +17218,7 @@
         <v>518494.8911645024</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17417,7 +17251,7 @@
         <v>445443.5016645024</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17450,7 +17284,7 @@
         <v>355344.5016645024</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17483,7 +17317,7 @@
         <v>489646.9163645024</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17516,7 +17350,7 @@
         <v>489646.9163645024</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17549,7 +17383,7 @@
         <v>489646.9163645024</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17582,7 +17416,7 @@
         <v>488750.0636645024</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17615,7 +17449,7 @@
         <v>474244.6689645024</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17648,7 +17482,7 @@
         <v>339776.8874645024</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17681,7 +17515,7 @@
         <v>389776.8874645024</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17714,7 +17548,7 @@
         <v>389798.0256645023</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17747,7 +17581,7 @@
         <v>631017.2919726241</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17780,7 +17614,7 @@
         <v>464555.9150726241</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17813,7 +17647,7 @@
         <v>128019.1165726241</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17846,7 +17680,7 @@
         <v>128019.1165726241</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17879,7 +17713,7 @@
         <v>151698.4585726241</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17912,7 +17746,7 @@
         <v>-194195.7738273758</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17945,7 +17779,7 @@
         <v>-48292.73692737584</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17978,7 +17812,7 @@
         <v>252824.3185726242</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18011,7 +17845,7 @@
         <v>108502.9169038806</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18044,7 +17878,7 @@
         <v>93596.45370388057</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18077,7 +17911,7 @@
         <v>175255.9814038806</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18110,7 +17944,7 @@
         <v>175066.2224038806</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18143,7 +17977,7 @@
         <v>293915.4909038806</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18176,7 +18010,7 @@
         <v>894186.8211041426</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18209,7 +18043,7 @@
         <v>793114.9183041425</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18242,7 +18076,7 @@
         <v>650712.6377041426</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18275,7 +18109,7 @@
         <v>749808.0332041426</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18308,7 +18142,7 @@
         <v>749611.5259041425</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18341,7 +18175,7 @@
         <v>753293.3712041426</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18374,7 +18208,7 @@
         <v>758473.1768041425</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18407,7 +18241,7 @@
         <v>478306.9031041425</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18440,7 +18274,7 @@
         <v>-740902.2996958576</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18473,7 +18307,7 @@
         <v>-727333.9741958575</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18506,7 +18340,7 @@
         <v>-1500238.461695858</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18539,7 +18373,7 @@
         <v>-1458038.461695858</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18572,7 +18406,7 @@
         <v>-1570547.084595858</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18605,7 +18439,7 @@
         <v>-1890120.04504987</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18638,7 +18472,7 @@
         <v>-1853538.96964987</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18671,7 +18505,7 @@
         <v>-1853593.96964987</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18704,7 +18538,7 @@
         <v>-1853593.96964987</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18737,7 +18571,7 @@
         <v>-1853593.96964987</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18770,7 +18604,7 @@
         <v>-2062187.77674987</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18803,7 +18637,7 @@
         <v>-1799953.72334987</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18836,7 +18670,7 @@
         <v>-1578149.021048656</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18869,7 +18703,7 @@
         <v>-1660708.941948656</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18902,7 +18736,7 @@
         <v>-1749914.577148655</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18935,7 +18769,7 @@
         <v>-1558396.211848655</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18968,7 +18802,7 @@
         <v>-1206703.630948656</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19001,7 +18835,7 @@
         <v>-1270420.218548656</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19034,7 +18868,7 @@
         <v>-1321514.031848656</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19067,7 +18901,7 @@
         <v>-2276017.648948655</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19100,7 +18934,7 @@
         <v>-2379906.235448656</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19133,7 +18967,7 @@
         <v>-2473235.568548656</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19166,7 +19000,7 @@
         <v>-2487919.340248656</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19199,7 +19033,7 @@
         <v>-2487919.340248656</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19298,7 +19132,7 @@
         <v>-3340914.389548656</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19529,7 +19363,7 @@
         <v>-4000278.530248656</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19562,7 +19396,7 @@
         <v>-4007093.530248656</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19628,7 +19462,7 @@
         <v>-4370663.474048655</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19661,7 +19495,7 @@
         <v>-4491811.287348655</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19694,7 +19528,7 @@
         <v>-5343151.478548655</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19760,7 +19594,7 @@
         <v>-5348213.407848655</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19793,7 +19627,7 @@
         <v>-5348213.407848655</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19925,7 +19759,7 @@
         <v>-5348246.407848655</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20189,7 +20023,7 @@
         <v>-6032743.431548655</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -22213,6 +22047,6 @@
       <c r="M607" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest DVP.xlsx
+++ b/BackTest/2019-10-25 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-4213441.074651593</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-4213529.963451593</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -605,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,17 +781,11 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,17 +814,11 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -901,17 +847,11 @@
         <v>-4227844.599551593</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -940,17 +880,11 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,17 +913,11 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,17 +946,11 @@
         <v>-4228903.781351593</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1098,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1131,17 +1045,11 @@
         <v>-4233415.379051594</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1178,7 +1086,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1638,11 +1546,9 @@
         <v>-4685006.228251593</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1677,11 +1583,9 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1716,11 +1620,9 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>8.029999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1755,11 +1657,9 @@
         <v>-4687278.450451593</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8.029999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1794,11 +1694,9 @@
         <v>-4688564.450451593</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1911,11 +1809,9 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1950,11 +1846,9 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2184,11 +2078,9 @@
         <v>-4547265.354251594</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2223,11 +2115,9 @@
         <v>-4540199.354251594</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2262,11 +2152,9 @@
         <v>-4543199.354251594</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2301,11 +2189,9 @@
         <v>-4543159.873451594</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2340,11 +2226,9 @@
         <v>-4786071.298551594</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>8.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2379,11 +2263,9 @@
         <v>-4804701.298551594</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -3705,9 +3587,11 @@
         <v>-3439142.505557753</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8.19</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3853,18 +3737,16 @@
         <v>-3583687.015657753</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3894,11 +3776,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3809,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +3842,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4005,11 +3875,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4042,11 +3908,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +3941,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +3974,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +4007,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4190,11 +4040,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +4073,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +4106,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +4139,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4338,11 +4172,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4375,11 +4205,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +4238,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4271,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +4304,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4523,11 +4337,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4560,11 +4370,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4403,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4436,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4671,11 +4469,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4502,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4535,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4568,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4815,15 +4597,11 @@
         <v>-4037441.565157753</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4634,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +4667,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4700,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +4733,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +4766,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +4799,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5078,11 +4832,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5111,15 +4861,11 @@
         <v>-4546843.709757754</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5152,11 +4898,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +4931,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5226,11 +4964,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5263,11 +4997,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5300,11 +5030,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5337,11 +5063,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +5096,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5411,11 +5129,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +5162,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5485,11 +5195,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5522,11 +5228,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5559,11 +5261,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5294,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5633,11 +5327,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +5360,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5393,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5744,11 +5426,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5781,11 +5459,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5818,11 +5492,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +5525,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5892,11 +5558,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +5591,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5966,11 +5624,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6003,11 +5657,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6040,11 +5690,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +5723,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6114,11 +5756,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6151,11 +5789,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6188,11 +5822,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +5855,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +5888,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +5921,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +5954,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6373,11 +5987,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6410,11 +6020,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +6053,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6484,11 +6086,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6521,11 +6119,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6558,11 +6152,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6595,11 +6185,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6632,11 +6218,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6669,11 +6251,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +6284,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6743,11 +6317,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6780,11 +6350,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6383,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6854,11 +6416,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +6449,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6928,11 +6482,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6965,11 +6515,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7002,11 +6548,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +6581,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +6614,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7113,11 +6647,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +6680,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7187,11 +6713,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7224,11 +6746,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +6779,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +6812,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7335,11 +6845,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +6878,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7409,11 +6911,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +6944,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7483,11 +6977,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7520,11 +7010,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +7043,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7594,11 +7076,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +7109,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7668,11 +7142,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7705,11 +7175,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +7208,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +7241,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7816,11 +7274,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7853,11 +7307,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7890,11 +7340,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +7373,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7964,11 +7406,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8001,11 +7439,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8038,11 +7472,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8075,11 +7505,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8112,11 +7538,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8149,11 +7571,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8186,11 +7604,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8223,11 +7637,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +7670,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8297,11 +7703,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8334,11 +7736,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +7769,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8408,11 +7802,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8445,11 +7835,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +7868,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +7901,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8556,11 +7934,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +7967,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8630,11 +8000,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +8033,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +8066,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8741,11 +8099,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8778,11 +8132,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8811,15 +8161,11 @@
         <v>-4354825.043905373</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8848,15 +8194,11 @@
         <v>-4354732.043705373</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8885,15 +8227,11 @@
         <v>-4354772.043805373</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8922,15 +8260,11 @@
         <v>-4554792.043805373</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8959,15 +8293,11 @@
         <v>-4554822.043905373</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8996,15 +8326,11 @@
         <v>-4452241.825805373</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9033,15 +8359,11 @@
         <v>-4452281.826005372</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9070,15 +8392,11 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9107,15 +8425,11 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9144,15 +8458,11 @@
         <v>-4715620.514905372</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9181,15 +8491,11 @@
         <v>-4715590.514905372</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9218,15 +8524,11 @@
         <v>-4715600.515005372</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9259,11 +8561,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9296,11 +8594,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9333,11 +8627,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9370,11 +8660,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9407,11 +8693,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9444,11 +8726,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9481,11 +8759,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9518,11 +8792,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9555,11 +8825,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +8858,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9629,11 +8891,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9666,11 +8924,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9703,11 +8957,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9740,11 +8990,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9777,11 +9023,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9814,11 +9056,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9851,11 +9089,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9888,11 +9122,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9925,11 +9155,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9962,11 +9188,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9999,11 +9221,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10036,11 +9254,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10073,11 +9287,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10110,11 +9320,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10147,11 +9353,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10184,11 +9386,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10221,11 +9419,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10258,11 +9452,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10295,11 +9485,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10332,11 +9518,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10369,11 +9551,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10406,11 +9584,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10443,11 +9617,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10480,11 +9650,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10517,11 +9683,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10554,11 +9716,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10591,11 +9749,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10628,11 +9782,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10665,11 +9815,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10702,11 +9848,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10739,11 +9881,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10776,11 +9914,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +9947,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10850,11 +9980,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10887,11 +10013,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10924,11 +10046,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10961,11 +10079,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10998,11 +10112,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11035,11 +10145,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11072,11 +10178,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +10211,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11146,11 +10244,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11183,11 +10277,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11220,11 +10310,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11257,11 +10343,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11294,11 +10376,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11331,11 +10409,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11368,11 +10442,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11405,11 +10475,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11442,11 +10508,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11479,11 +10541,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11512,15 +10570,11 @@
         <v>-4216456.156805371</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11553,11 +10607,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11586,15 +10636,11 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11623,15 +10669,11 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11664,11 +10706,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11701,11 +10739,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11734,15 +10768,11 @@
         <v>-3872431.943605371</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11775,11 +10805,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11808,15 +10834,11 @@
         <v>-3395991.863005371</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11845,15 +10867,11 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11882,15 +10900,11 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11919,15 +10933,11 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11956,15 +10966,11 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11993,15 +10999,11 @@
         <v>-3405132.443605371</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12030,15 +11032,11 @@
         <v>-3419233.516105371</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12067,15 +11065,11 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12104,15 +11098,11 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12141,15 +11131,11 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12182,11 +11168,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12219,11 +11201,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12252,15 +11230,11 @@
         <v>-2312225.682405371</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12293,11 +11267,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12330,11 +11300,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12363,15 +11329,11 @@
         <v>-394429.5754053706</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12400,15 +11362,11 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12437,15 +11395,11 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12474,15 +11428,11 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12511,15 +11461,11 @@
         <v>-148497.4589053706</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12548,15 +11494,11 @@
         <v>-692567.2040053705</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12585,15 +11527,11 @@
         <v>-1148240.70490537</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12622,15 +11560,11 @@
         <v>-685882.8487053704</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12659,15 +11593,11 @@
         <v>-731145.1977053705</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12696,15 +11626,11 @@
         <v>-792832.1147053705</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12733,15 +11659,11 @@
         <v>-644566.3803053705</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12770,15 +11692,11 @@
         <v>1142739.897794629</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12807,15 +11725,11 @@
         <v>1036808.011894629</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12844,15 +11758,11 @@
         <v>1726264.75159463</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12881,15 +11791,11 @@
         <v>2893034.38559463</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12918,15 +11824,11 @@
         <v>2561374.18279463</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12955,15 +11857,11 @@
         <v>2561251.54219463</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12992,15 +11890,11 @@
         <v>1220042.32189463</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13029,15 +11923,11 @@
         <v>1584267.06309463</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13066,15 +11956,11 @@
         <v>1849044.53989463</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13103,15 +11989,11 @@
         <v>2509455.45069463</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13144,11 +12026,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13181,11 +12059,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13218,11 +12092,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +12125,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +12158,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +12191,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13366,11 +12224,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13403,11 +12257,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13440,11 +12290,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13477,11 +12323,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13514,11 +12356,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13551,11 +12389,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13588,11 +12422,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13625,11 +12455,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13658,15 +12484,11 @@
         <v>825014.7144634575</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13695,15 +12517,11 @@
         <v>726100.1503634575</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13732,15 +12550,11 @@
         <v>1095042.785463457</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13773,11 +12587,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13810,11 +12620,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13847,11 +12653,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13884,11 +12686,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13917,15 +12715,11 @@
         <v>603703.4810634574</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13954,15 +12748,11 @@
         <v>281958.3202634574</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13991,15 +12781,11 @@
         <v>27428.32026345743</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14028,15 +12814,11 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14065,15 +12847,11 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14102,15 +12880,11 @@
         <v>184933.7818634574</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14139,15 +12913,11 @@
         <v>251914.7008634574</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14176,15 +12946,11 @@
         <v>251710.9101634574</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14217,12 +12983,10 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
       <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
@@ -14248,7 +13012,7 @@
         <v>-28874.30863654263</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14281,7 +13045,7 @@
         <v>142519.0570634574</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14314,7 +13078,7 @@
         <v>145049.0570634574</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14446,7 +13210,7 @@
         <v>-217065.3299365426</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14512,7 +13276,7 @@
         <v>827264.2754743854</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14545,7 +13309,7 @@
         <v>827264.2754743854</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14578,7 +13342,7 @@
         <v>839264.2754743854</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14743,7 +13507,7 @@
         <v>707004.3505743854</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15337,7 +14101,7 @@
         <v>5224130.571047771</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15370,7 +14134,7 @@
         <v>6120814.524947771</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15403,7 +14167,7 @@
         <v>5001621.055047771</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15436,7 +14200,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15469,7 +14233,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15502,7 +14266,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15535,7 +14299,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15568,7 +14332,7 @@
         <v>3973652.723047771</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15601,7 +14365,7 @@
         <v>3665523.545747771</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15634,7 +14398,7 @@
         <v>3665523.545747771</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15667,7 +14431,7 @@
         <v>3923500.229547771</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15700,7 +14464,7 @@
         <v>3397255.359547771</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15733,7 +14497,7 @@
         <v>3640778.623147771</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15766,7 +14530,7 @@
         <v>3258058.129547771</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15799,7 +14563,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15832,7 +14596,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15865,7 +14629,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15898,7 +14662,7 @@
         <v>4129966.246871236</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15931,7 +14695,7 @@
         <v>6411849.169000648</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15964,7 +14728,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15997,7 +14761,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16030,7 +14794,7 @@
         <v>1907770.349100648</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16063,7 +14827,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16096,7 +14860,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16129,7 +14893,7 @@
         <v>2339725.528200647</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16162,7 +14926,7 @@
         <v>2343078.162500647</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16195,7 +14959,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16228,7 +14992,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16327,7 +15091,7 @@
         <v>2017042.837564502</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16360,7 +15124,7 @@
         <v>1618689.057264502</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16393,7 +15157,7 @@
         <v>1618689.057264502</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16426,7 +15190,7 @@
         <v>1483414.592964503</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16459,7 +15223,7 @@
         <v>1359779.788264503</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16492,7 +15256,7 @@
         <v>1304985.018064503</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16525,7 +15289,7 @@
         <v>1417760.992064503</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16558,7 +15322,7 @@
         <v>1407760.992064503</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16591,7 +15355,7 @@
         <v>1299578.543664502</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16624,7 +15388,7 @@
         <v>1522294.872164503</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16657,7 +15421,7 @@
         <v>1469865.971664503</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16723,7 +15487,7 @@
         <v>1256269.115964503</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16822,7 +15586,7 @@
         <v>565393.5335645025</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16855,7 +15619,7 @@
         <v>622359.4218645025</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16888,7 +15652,7 @@
         <v>569898.3314645025</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16921,7 +15685,7 @@
         <v>43582.60026450246</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16954,7 +15718,7 @@
         <v>312155.9029645025</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16987,7 +15751,7 @@
         <v>478041.9032645025</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17020,7 +15784,7 @@
         <v>493834.0540645025</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17086,7 +15850,7 @@
         <v>845729.4171645024</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17119,7 +15883,7 @@
         <v>1011913.782364502</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17152,7 +15916,7 @@
         <v>821470.6981645024</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17185,7 +15949,7 @@
         <v>518494.8911645024</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17218,7 +15982,7 @@
         <v>518494.8911645024</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17251,7 +16015,7 @@
         <v>445443.5016645024</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17284,7 +16048,7 @@
         <v>355344.5016645024</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17317,7 +16081,7 @@
         <v>489646.9163645024</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17350,7 +16114,7 @@
         <v>489646.9163645024</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17383,7 +16147,7 @@
         <v>489646.9163645024</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17416,7 +16180,7 @@
         <v>488750.0636645024</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17449,7 +16213,7 @@
         <v>474244.6689645024</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17482,7 +16246,7 @@
         <v>339776.8874645024</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17515,7 +16279,7 @@
         <v>389776.8874645024</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17548,7 +16312,7 @@
         <v>389798.0256645023</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17581,7 +16345,7 @@
         <v>631017.2919726241</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17614,7 +16378,7 @@
         <v>464555.9150726241</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17647,7 +16411,7 @@
         <v>128019.1165726241</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17680,7 +16444,7 @@
         <v>128019.1165726241</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17713,7 +16477,7 @@
         <v>151698.4585726241</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17746,7 +16510,7 @@
         <v>-194195.7738273758</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17779,7 +16543,7 @@
         <v>-48292.73692737584</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17812,7 +16576,7 @@
         <v>252824.3185726242</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17845,7 +16609,7 @@
         <v>108502.9169038806</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17878,7 +16642,7 @@
         <v>93596.45370388057</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17911,7 +16675,7 @@
         <v>175255.9814038806</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17944,7 +16708,7 @@
         <v>175066.2224038806</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17977,7 +16741,7 @@
         <v>293915.4909038806</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18010,7 +16774,7 @@
         <v>894186.8211041426</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18043,7 +16807,7 @@
         <v>793114.9183041425</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18076,7 +16840,7 @@
         <v>650712.6377041426</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18109,7 +16873,7 @@
         <v>749808.0332041426</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18142,7 +16906,7 @@
         <v>749611.5259041425</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18175,7 +16939,7 @@
         <v>753293.3712041426</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18208,7 +16972,7 @@
         <v>758473.1768041425</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18241,7 +17005,7 @@
         <v>478306.9031041425</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18274,7 +17038,7 @@
         <v>-740902.2996958576</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18307,7 +17071,7 @@
         <v>-727333.9741958575</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18340,7 +17104,7 @@
         <v>-1500238.461695858</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18373,7 +17137,7 @@
         <v>-1458038.461695858</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18406,7 +17170,7 @@
         <v>-1570547.084595858</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18439,7 +17203,7 @@
         <v>-1890120.04504987</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18472,7 +17236,7 @@
         <v>-1853538.96964987</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18505,7 +17269,7 @@
         <v>-1853593.96964987</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18538,7 +17302,7 @@
         <v>-1853593.96964987</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18571,7 +17335,7 @@
         <v>-1853593.96964987</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18604,7 +17368,7 @@
         <v>-2062187.77674987</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18637,7 +17401,7 @@
         <v>-1799953.72334987</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18670,7 +17434,7 @@
         <v>-1578149.021048656</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18703,7 +17467,7 @@
         <v>-1660708.941948656</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18736,7 +17500,7 @@
         <v>-1749914.577148655</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18769,7 +17533,7 @@
         <v>-1558396.211848655</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18802,7 +17566,7 @@
         <v>-1206703.630948656</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18835,7 +17599,7 @@
         <v>-1270420.218548656</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18868,7 +17632,7 @@
         <v>-1321514.031848656</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18901,7 +17665,7 @@
         <v>-2276017.648948655</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18934,7 +17698,7 @@
         <v>-2379906.235448656</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18967,7 +17731,7 @@
         <v>-2473235.568548656</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19000,7 +17764,7 @@
         <v>-2487919.340248656</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19033,7 +17797,7 @@
         <v>-2487919.340248656</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -22047,6 +20811,6 @@
       <c r="M607" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest DVP.xlsx
+++ b/BackTest/2019-10-25 BackTest DVP.xlsx
@@ -451,7 +451,7 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.85</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-4213441.074651593</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.85</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-4213529.963451593</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.95</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-4213574.407851594</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-4213484.458551593</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.85</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +683,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +720,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +757,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +790,17 @@
         <v>-4228466.530051593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.86</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +829,17 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.86</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +868,17 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +907,17 @@
         <v>-4227844.599551593</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +946,17 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.89</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +985,17 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1024,17 @@
         <v>-4228903.781351593</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1067,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1104,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1141,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1086,7 +1182,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1546,9 +1642,11 @@
         <v>-4685006.228251593</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1583,9 +1681,11 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1620,9 +1720,11 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1657,9 +1759,11 @@
         <v>-4687278.450451593</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1694,9 +1798,11 @@
         <v>-4688564.450451593</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.02</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1809,9 +1915,11 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1846,9 +1954,11 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2078,9 +2188,11 @@
         <v>-4547265.354251594</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8.06</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2115,9 +2227,11 @@
         <v>-4540199.354251594</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2152,9 +2266,11 @@
         <v>-4543199.354251594</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8.06</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2189,9 +2305,11 @@
         <v>-4543159.873451594</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2226,9 +2344,11 @@
         <v>-4786071.298551594</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.06</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2263,9 +2383,11 @@
         <v>-4804701.298551594</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7.96</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -3587,11 +3709,9 @@
         <v>-3439142.505557753</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3737,16 +3857,18 @@
         <v>-3583687.015657753</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3776,7 +3898,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3809,7 +3935,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3842,7 +3972,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3875,7 +4009,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3908,7 +4046,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3941,7 +4083,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3974,7 +4120,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4007,7 +4157,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4040,7 +4194,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4073,7 +4231,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4106,7 +4268,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4139,7 +4305,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4172,7 +4342,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4205,7 +4379,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4416,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4271,7 +4453,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4304,7 +4490,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4337,7 +4527,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4370,7 +4564,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4403,7 +4601,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4436,7 +4638,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4469,7 +4675,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4502,7 +4712,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4535,7 +4749,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4568,7 +4786,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4819,15 @@
         <v>-4037441.565157753</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4634,7 +4860,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4667,7 +4897,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4700,7 +4934,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4733,7 +4971,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4766,7 +5008,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +5045,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4832,7 +5082,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +5115,15 @@
         <v>-4546843.709757754</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4898,7 +5156,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4931,7 +5193,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4964,7 +5230,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4997,7 +5267,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5030,7 +5304,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5063,7 +5341,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5096,7 +5378,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5129,7 +5415,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5162,7 +5452,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5195,7 +5489,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5228,7 +5526,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5261,7 +5563,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5294,7 +5600,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5327,7 +5637,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5360,7 +5674,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5711,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5426,7 +5748,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5459,7 +5785,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5492,7 +5822,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5525,7 +5859,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5558,7 +5896,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5591,7 +5933,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5624,7 +5970,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5657,7 +6007,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5690,7 +6044,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5723,7 +6081,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5756,7 +6118,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5789,7 +6155,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5822,7 +6192,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5855,7 +6229,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5888,7 +6266,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5921,7 +6303,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5954,7 +6340,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5987,7 +6377,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6020,7 +6414,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6053,7 +6451,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6086,7 +6488,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6119,7 +6525,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6152,7 +6562,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6185,7 +6599,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6218,7 +6636,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6251,7 +6673,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6284,7 +6710,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6317,7 +6747,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6350,7 +6784,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6383,7 +6821,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6416,7 +6858,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6449,7 +6895,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6482,7 +6932,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6515,7 +6969,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +7006,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6581,7 +7043,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6614,7 +7080,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6647,7 +7117,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6680,7 +7154,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6713,7 +7191,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6746,7 +7228,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6779,7 +7265,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6812,7 +7302,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6845,7 +7339,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6878,7 +7376,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6911,7 +7413,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6944,7 +7450,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6977,7 +7487,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7010,7 +7524,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7043,7 +7561,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7076,7 +7598,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7109,7 +7635,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7142,7 +7672,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7175,7 +7709,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7208,7 +7746,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7241,7 +7783,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7274,7 +7820,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7857,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7340,7 +7894,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7373,7 +7931,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7406,7 +7968,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7439,7 +8005,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7472,7 +8042,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7505,7 +8079,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7538,7 +8116,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7571,7 +8153,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7604,7 +8190,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7637,7 +8227,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7670,7 +8264,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8301,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7736,7 +8338,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7769,7 +8375,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7802,7 +8412,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7835,7 +8449,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7868,7 +8486,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7901,7 +8523,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7934,7 +8560,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7967,7 +8597,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8000,7 +8634,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8033,7 +8671,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8066,7 +8708,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8099,7 +8745,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8132,7 +8782,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8161,11 +8815,15 @@
         <v>-4354825.043905373</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8194,11 +8852,15 @@
         <v>-4354732.043705373</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8227,11 +8889,15 @@
         <v>-4354772.043805373</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +8926,15 @@
         <v>-4554792.043805373</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +8963,15 @@
         <v>-4554822.043905373</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +9000,15 @@
         <v>-4452241.825805373</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8359,11 +9037,15 @@
         <v>-4452281.826005372</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8392,11 +9074,15 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8425,11 +9111,15 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8458,11 +9148,15 @@
         <v>-4715620.514905372</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8491,11 +9185,15 @@
         <v>-4715590.514905372</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +9222,15 @@
         <v>-4715600.515005372</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8561,7 +9263,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8594,7 +9300,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8627,7 +9337,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8660,7 +9374,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8693,7 +9411,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8726,7 +9448,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8759,7 +9485,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8792,7 +9522,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8825,7 +9559,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9596,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8891,7 +9633,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8924,7 +9670,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8957,7 +9707,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8990,7 +9744,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9023,7 +9781,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9056,7 +9818,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9089,7 +9855,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9122,7 +9892,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9155,7 +9929,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9188,7 +9966,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9221,7 +10003,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9254,7 +10040,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9287,7 +10077,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9320,7 +10114,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9353,7 +10151,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9386,7 +10188,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9419,7 +10225,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9452,7 +10262,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9485,7 +10299,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9518,7 +10336,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9551,7 +10373,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9584,7 +10410,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9617,7 +10447,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9650,7 +10484,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9683,7 +10521,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9716,7 +10558,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9749,7 +10595,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9782,7 +10632,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9815,7 +10669,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9848,7 +10706,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9881,7 +10743,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +10780,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9947,7 +10817,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9980,7 +10854,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10891,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10046,7 +10928,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10079,7 +10965,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10112,7 +11002,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10145,7 +11039,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10178,7 +11076,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10211,7 +11113,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10244,7 +11150,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10277,7 +11187,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10310,7 +11224,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10343,7 +11261,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10376,7 +11298,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10409,7 +11335,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10442,7 +11372,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10475,7 +11409,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10508,7 +11446,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10541,7 +11483,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10570,11 +11516,15 @@
         <v>-4216456.156805371</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10607,7 +11557,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10636,11 +11590,15 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10669,11 +11627,15 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10706,7 +11668,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10739,7 +11705,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +11738,15 @@
         <v>-3872431.943605371</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10805,7 +11779,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10834,11 +11812,15 @@
         <v>-3395991.863005371</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10867,11 +11849,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10900,11 +11886,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10933,11 +11923,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10966,11 +11960,15 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10999,11 +11997,15 @@
         <v>-3405132.443605371</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11032,11 +12034,15 @@
         <v>-3419233.516105371</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11065,11 +12071,15 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11098,11 +12108,15 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11131,11 +12145,15 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11168,7 +12186,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11201,7 +12223,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11230,11 +12256,15 @@
         <v>-2312225.682405371</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11267,7 +12297,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11300,7 +12334,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11329,11 +12367,15 @@
         <v>-394429.5754053706</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11362,11 +12404,15 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11395,11 +12441,15 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11428,11 +12478,15 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11461,11 +12515,15 @@
         <v>-148497.4589053706</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11494,11 +12552,15 @@
         <v>-692567.2040053705</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11527,11 +12589,15 @@
         <v>-1148240.70490537</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11560,11 +12626,15 @@
         <v>-685882.8487053704</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11593,11 +12663,15 @@
         <v>-731145.1977053705</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11626,11 +12700,15 @@
         <v>-792832.1147053705</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11659,11 +12737,15 @@
         <v>-644566.3803053705</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11692,11 +12774,15 @@
         <v>1142739.897794629</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11725,11 +12811,15 @@
         <v>1036808.011894629</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11758,11 +12848,15 @@
         <v>1726264.75159463</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11791,11 +12885,15 @@
         <v>2893034.38559463</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11824,11 +12922,15 @@
         <v>2561374.18279463</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11857,11 +12959,15 @@
         <v>2561251.54219463</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11890,11 +12996,15 @@
         <v>1220042.32189463</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11923,11 +13033,15 @@
         <v>1584267.06309463</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11956,11 +13070,15 @@
         <v>1849044.53989463</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11989,11 +13107,15 @@
         <v>2509455.45069463</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12026,7 +13148,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12059,7 +13185,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12092,7 +13222,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12125,7 +13259,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12158,7 +13296,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12191,7 +13333,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12224,7 +13370,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12257,7 +13407,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12290,7 +13444,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +13481,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12356,7 +13518,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12389,7 +13555,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12422,7 +13592,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12455,7 +13629,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12484,11 +13662,15 @@
         <v>825014.7144634575</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12517,11 +13699,15 @@
         <v>726100.1503634575</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12550,11 +13736,15 @@
         <v>1095042.785463457</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12587,7 +13777,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12620,7 +13814,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12653,7 +13851,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12686,7 +13888,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12715,11 +13921,15 @@
         <v>603703.4810634574</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12748,11 +13958,15 @@
         <v>281958.3202634574</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12781,11 +13995,15 @@
         <v>27428.32026345743</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12814,11 +14032,15 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12847,11 +14069,15 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12880,11 +14106,15 @@
         <v>184933.7818634574</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12913,11 +14143,15 @@
         <v>251914.7008634574</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12946,11 +14180,15 @@
         <v>251710.9101634574</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12979,11 +14217,15 @@
         <v>-136561.8511365426</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13016,7 +14258,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13049,7 +14295,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13082,7 +14332,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13115,7 +14369,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13148,7 +14406,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13181,7 +14443,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13214,7 +14480,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13247,7 +14517,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13280,7 +14554,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13313,7 +14591,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13346,7 +14628,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13379,7 +14665,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13412,7 +14702,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13445,7 +14739,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13478,7 +14776,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13511,7 +14813,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13544,7 +14850,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13577,7 +14887,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13610,7 +14924,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13643,7 +14961,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13676,7 +14998,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13709,7 +15035,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13742,7 +15072,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13775,7 +15109,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13808,7 +15146,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13841,7 +15183,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13874,7 +15220,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13907,7 +15257,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13940,7 +15294,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13973,7 +15331,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14006,7 +15368,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14039,7 +15405,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14072,7 +15442,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14101,14 +15475,16 @@
         <v>5224130.571047771</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="inlineStr"/>
     </row>
     <row r="405">
@@ -14134,7 +15510,7 @@
         <v>6120814.524947771</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14167,7 +15543,7 @@
         <v>5001621.055047771</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14200,7 +15576,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14233,7 +15609,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14266,7 +15642,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14299,7 +15675,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14332,7 +15708,7 @@
         <v>3973652.723047771</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14365,7 +15741,7 @@
         <v>3665523.545747771</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14563,7 +15939,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14596,7 +15972,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14629,7 +16005,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14662,7 +16038,7 @@
         <v>4129966.246871236</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14695,7 +16071,7 @@
         <v>6411849.169000648</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14728,7 +16104,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14761,7 +16137,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14794,7 +16170,7 @@
         <v>1907770.349100648</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14827,7 +16203,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14893,7 +16269,7 @@
         <v>2339725.528200647</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14992,7 +16368,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15025,7 +16401,7 @@
         <v>2042714.137200647</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15058,7 +16434,7 @@
         <v>1895984.032864502</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15091,7 +16467,7 @@
         <v>2017042.837564502</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15190,7 +16566,7 @@
         <v>1483414.592964503</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15223,7 +16599,7 @@
         <v>1359779.788264503</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
